--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">FEZ = FAZ + D</t>
   </si>
   <si>
-    <t xml:space="preserve">Gesamtpuffer (GP) = SEZ – SAZ = FEZ – FAZ</t>
+    <t xml:space="preserve">Gesamtpuffer (GP) = SEZ – FEZ = SAZ – FAZ</t>
   </si>
   <si>
     <t xml:space="preserve">FAZ = größste FEZ (Vorgänger)</t>
@@ -868,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R38" activeCellId="1" sqref="E23 R38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R37" activeCellId="0" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1127,22 +1127,44 @@
         <v>0</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="K15" s="7"/>
+      <c r="H15" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="P15" s="7"/>
+      <c r="M15" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>16</v>
+      </c>
       <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
-      <c r="U15" s="7"/>
+      <c r="R15" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="U15" s="7" t="n">
+        <v>21</v>
+      </c>
       <c r="V15" s="8"/>
-      <c r="W15" s="9"/>
-      <c r="Z15" s="7"/>
+      <c r="W15" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="7" t="n">
+        <v>29</v>
+      </c>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="9"/>
+      <c r="AB15" s="9" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
@@ -1191,62 +1213,108 @@
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F17" s="12" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="G17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" s="12" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
+      <c r="L17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="P17" s="12" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
+      <c r="Q17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="U17" s="12" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="14"/>
+      <c r="V17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Z17" s="12" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="14"/>
+      <c r="AA17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="16" t="n">
+        <v>2</v>
+      </c>
       <c r="D18" s="17"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="16"/>
-      <c r="K18" s="15"/>
+      <c r="H18" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="16"/>
-      <c r="P18" s="15"/>
+      <c r="M18" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="P18" s="15" t="n">
+        <v>16</v>
+      </c>
       <c r="Q18" s="8"/>
-      <c r="R18" s="16"/>
-      <c r="U18" s="15"/>
+      <c r="R18" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="U18" s="15" t="n">
+        <v>21</v>
+      </c>
       <c r="V18" s="8"/>
-      <c r="W18" s="16"/>
+      <c r="W18" s="16" t="n">
+        <v>29</v>
+      </c>
       <c r="Y18" s="18"/>
-      <c r="Z18" s="15"/>
+      <c r="Z18" s="15" t="n">
+        <v>29</v>
+      </c>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="16"/>
+      <c r="AB18" s="16" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="19"/>
@@ -1258,18 +1326,34 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="19"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="K21" s="7"/>
+      <c r="H21" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="P21" s="7"/>
+      <c r="M21" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P21" s="7" t="n">
+        <v>18</v>
+      </c>
       <c r="Q21" s="8"/>
-      <c r="R21" s="9"/>
-      <c r="U21" s="7"/>
+      <c r="R21" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="U21" s="7" t="n">
+        <v>24</v>
+      </c>
       <c r="V21" s="8"/>
-      <c r="W21" s="9"/>
+      <c r="W21" s="9" t="n">
+        <v>26</v>
+      </c>
       <c r="Y21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,43 +1393,75 @@
         <f aca="false">VLOOKUP(F22,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" s="12" t="n">
         <f aca="false">VLOOKUP(K22,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
+      <c r="L23" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="P23" s="12" t="n">
         <f aca="false">VLOOKUP(P22,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
+      <c r="Q23" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="U23" s="12" t="n">
         <f aca="false">VLOOKUP(U22,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V23" s="13"/>
-      <c r="W23" s="14"/>
+      <c r="V23" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="15"/>
+      <c r="F24" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="16" t="n">
+        <v>13</v>
+      </c>
       <c r="I24" s="17"/>
-      <c r="K24" s="15"/>
+      <c r="K24" s="15" t="n">
+        <v>13</v>
+      </c>
       <c r="L24" s="8"/>
-      <c r="M24" s="16"/>
-      <c r="P24" s="15"/>
+      <c r="M24" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="P24" s="15" t="n">
+        <v>21</v>
+      </c>
       <c r="Q24" s="8"/>
-      <c r="R24" s="16"/>
+      <c r="R24" s="16" t="n">
+        <v>27</v>
+      </c>
       <c r="S24" s="19"/>
       <c r="T24" s="21"/>
-      <c r="U24" s="15"/>
+      <c r="U24" s="15" t="n">
+        <v>27</v>
+      </c>
       <c r="V24" s="8"/>
-      <c r="W24" s="16"/>
+      <c r="W24" s="16" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I25" s="19"/>
@@ -1357,12 +1473,20 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I27" s="19"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="P27" s="7"/>
+      <c r="M27" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="n">
+        <v>18</v>
+      </c>
       <c r="Q27" s="8"/>
-      <c r="R27" s="9"/>
+      <c r="R27" s="9" t="n">
+        <v>23</v>
+      </c>
       <c r="S27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,22 +1511,38 @@
         <f aca="false">VLOOKUP(K28,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
+      <c r="L29" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="P29" s="12" t="n">
         <f aca="false">VLOOKUP(P28,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
+      <c r="Q29" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" s="14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="15"/>
+      <c r="K30" s="15" t="n">
+        <v>14</v>
+      </c>
       <c r="L30" s="8"/>
-      <c r="M30" s="16"/>
-      <c r="P30" s="15"/>
+      <c r="M30" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="P30" s="15" t="n">
+        <v>22</v>
+      </c>
       <c r="Q30" s="8"/>
-      <c r="R30" s="16"/>
+      <c r="R30" s="16" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
@@ -1783,8 +1923,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="E23 D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2038,8 +2178,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="1" sqref="E23 G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2301,7 +2441,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="41">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">Freier Puffer (FAZ-Nachfolger – FEZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP = kleinste FAZ(Nachfolger)- FEZ</t>
   </si>
 </sst>
 </file>
@@ -311,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -375,6 +372,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -401,7 +405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,6 +556,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -868,8 +876,8 @@
   </sheetPr>
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R37" activeCellId="0" sqref="R37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1529,9 +1537,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="15" t="n">
-        <v>14</v>
-      </c>
+      <c r="K30" s="0"/>
       <c r="L30" s="8"/>
       <c r="M30" s="16" t="n">
         <v>22</v>
@@ -1921,10 +1927,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="W16" activeCellId="0" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2107,9 +2113,11 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2124,6 +2132,26 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
+      <c r="F12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="K12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="P12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="U12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
@@ -2131,6 +2159,34 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="n">
@@ -2139,19 +2195,192 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
+      <c r="F14" s="12" t="n">
+        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="K14" s="12" t="n">
+        <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="P14" s="12" t="n">
+        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="U14" s="12" t="n">
+        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="13"/>
+      <c r="W14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
       <c r="B15" s="8"/>
       <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="16"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="16"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="W16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="19"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="19"/>
+      <c r="F18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="K18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+      <c r="P18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="19"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="22"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="12" t="n">
+        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="K20" s="12" t="n">
+        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="P20" s="12" t="n">
+        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="15"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="19"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="19"/>
+      <c r="K24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="19"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="12" t="n">
+        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="15"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="K25:M25"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="B14 G14 G20 L14 L20 L26 Q14 Q20 V14">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
@@ -2179,7 +2408,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2235,7 +2464,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2356,9 +2585,7 @@
       <c r="H9" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="P9" s="26" t="s">
-        <v>41</v>
-      </c>
+      <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
@@ -2441,8 +2668,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2498,7 +2725,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2627,9 +2854,7 @@
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>14</v>

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Übung2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Übung3" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Übung 4" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Feiertage" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="84">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -146,18 +147,149 @@
   </si>
   <si>
     <t xml:space="preserve">Freier Puffer (FAZ-Nachfolger – FEZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feiertag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heilige Drei Könige</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ba-Wü, Bay, Sa-An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internationaler Frauentag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verlängertes Wochenende</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B, MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karfreitag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bundesweit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostermontag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag der Arbeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christi Himmelfahrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brückentag möglich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfingstmontag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fronleichnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaWü, Bay, Hes, NRW, Rh-Pf, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariä Himmelfahrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bay, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weltkindertag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag der Deutschen Einheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reformationstag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB, HH, MV, Sa, Sa-An, S-H, Thü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allerheiligen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaWü, Bay, NRW, Rh-Pf, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buß- und Bettag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Weihnachtstag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Weihnachtstag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -182,6 +314,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -228,7 +367,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +384,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55308D"/>
+        <bgColor rgb="FF203864"/>
       </patternFill>
     </fill>
     <fill>
@@ -308,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -321,6 +466,20 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -405,7 +564,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -416,6 +575,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -430,56 +593,68 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -498,11 +673,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,43 +693,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,7 +737,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -571,7 +762,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -589,6 +780,32 @@
         <b val="1"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF548235"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.25"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -679,7 +896,7 @@
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666699"/>
@@ -690,7 +907,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF843C0B"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -874,10 +1091,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:BJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AZ1" activeCellId="0" sqref="AZ1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -888,7 +1109,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="42.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -905,975 +1126,1784 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="3" t="n">
+        <v>45572</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>45573</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>45574</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>45575</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>45576</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>45577</v>
+      </c>
+      <c r="O1" s="3" t="n">
+        <v>45578</v>
+      </c>
+      <c r="P1" s="3" t="n">
+        <v>45579</v>
+      </c>
+      <c r="Q1" s="3" t="n">
+        <v>45580</v>
+      </c>
+      <c r="R1" s="3" t="n">
+        <v>45581</v>
+      </c>
+      <c r="S1" s="3" t="n">
+        <v>45582</v>
+      </c>
+      <c r="T1" s="3" t="n">
+        <v>45583</v>
+      </c>
+      <c r="U1" s="3" t="n">
+        <v>45584</v>
+      </c>
+      <c r="V1" s="3" t="n">
+        <v>45585</v>
+      </c>
+      <c r="W1" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="X1" s="3" t="n">
+        <v>45587</v>
+      </c>
+      <c r="Y1" s="3" t="n">
+        <v>45588</v>
+      </c>
+      <c r="Z1" s="3" t="n">
+        <v>45589</v>
+      </c>
+      <c r="AA1" s="3" t="n">
+        <v>45590</v>
+      </c>
+      <c r="AB1" s="3" t="n">
+        <v>45591</v>
+      </c>
+      <c r="AC1" s="3" t="n">
+        <v>45592</v>
+      </c>
+      <c r="AD1" s="3" t="n">
+        <v>45593</v>
+      </c>
+      <c r="AE1" s="3" t="n">
+        <v>45594</v>
+      </c>
+      <c r="AF1" s="3" t="n">
+        <v>45595</v>
+      </c>
+      <c r="AG1" s="3" t="n">
+        <v>45596</v>
+      </c>
+      <c r="AH1" s="3" t="n">
+        <v>45597</v>
+      </c>
+      <c r="AI1" s="3" t="n">
+        <v>45598</v>
+      </c>
+      <c r="AJ1" s="3" t="n">
+        <v>45599</v>
+      </c>
+      <c r="AK1" s="3" t="n">
+        <v>45600</v>
+      </c>
+      <c r="AL1" s="3" t="n">
+        <v>45601</v>
+      </c>
+      <c r="AM1" s="3" t="n">
+        <v>45602</v>
+      </c>
+      <c r="AN1" s="3" t="n">
+        <v>45603</v>
+      </c>
+      <c r="AO1" s="3" t="n">
+        <v>45604</v>
+      </c>
+      <c r="AP1" s="3" t="n">
+        <v>45605</v>
+      </c>
+      <c r="AQ1" s="3" t="n">
+        <v>45606</v>
+      </c>
+      <c r="AR1" s="3" t="n">
+        <v>45607</v>
+      </c>
+      <c r="AS1" s="3" t="n">
+        <v>45608</v>
+      </c>
+      <c r="AT1" s="3" t="n">
+        <v>45609</v>
+      </c>
+      <c r="AU1" s="3" t="n">
+        <v>45610</v>
+      </c>
+      <c r="AV1" s="3" t="n">
+        <v>45611</v>
+      </c>
+      <c r="AW1" s="3" t="n">
+        <v>45612</v>
+      </c>
+      <c r="AX1" s="3" t="n">
+        <v>45613</v>
+      </c>
+      <c r="AY1" s="3" t="n">
+        <v>45614</v>
+      </c>
+      <c r="AZ1" s="3" t="n">
+        <v>45615</v>
+      </c>
+      <c r="BA1" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="BB1" s="3" t="n">
+        <v>45617</v>
+      </c>
+      <c r="BC1" s="3" t="n">
+        <v>45618</v>
+      </c>
+      <c r="BD1" s="3" t="n">
+        <v>45619</v>
+      </c>
+      <c r="BE1" s="3" t="n">
+        <v>45620</v>
+      </c>
+      <c r="BF1" s="3" t="n">
+        <v>45621</v>
+      </c>
+      <c r="BG1" s="3" t="n">
+        <v>45622</v>
+      </c>
+      <c r="BH1" s="3" t="n">
+        <v>45623</v>
+      </c>
+      <c r="BI1" s="3" t="n">
+        <v>45624</v>
+      </c>
+      <c r="BJ1" s="3" t="n">
+        <v>45625</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
         <v>8</v>
       </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
         <v>8</v>
       </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
         <v>6</v>
       </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
         <v>8</v>
       </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
         <v>8</v>
       </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
         <v>5</v>
       </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="10"/>
+      <c r="BJ8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
         <v>6</v>
       </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="10"/>
+      <c r="BJ9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
         <v>5</v>
       </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="10"/>
+      <c r="BJ10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="n">
         <v>8</v>
       </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="n">
+      <c r="D13" s="11"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="n">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="n">
+      <c r="G15" s="14"/>
+      <c r="H15" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9" t="n">
+      <c r="L15" s="14"/>
+      <c r="M15" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9" t="n">
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="U15" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="9" t="n">
+      <c r="V15" s="14"/>
+      <c r="W15" s="15" t="n">
         <v>29</v>
       </c>
-      <c r="Z15" s="7" t="n">
+      <c r="Z15" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="9" t="n">
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="15" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="10" t="s">
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="10" t="s">
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="10" t="s">
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="18" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="18" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="13" t="n">
+      <c r="G17" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="14" t="n">
+      <c r="H17" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="K17" s="12" t="n">
+      <c r="K17" s="18" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="13" t="n">
+      <c r="L17" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="M17" s="14" t="n">
+      <c r="M17" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="P17" s="12" t="n">
+      <c r="P17" s="18" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="13" t="n">
+      <c r="Q17" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="14" t="n">
+      <c r="R17" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="U17" s="12" t="n">
+      <c r="U17" s="18" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="W17" s="14" t="n">
+      <c r="W17" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="12" t="n">
+      <c r="Z17" s="18" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AB17" s="14" t="n">
+      <c r="AB17" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+      <c r="A18" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="16" t="n">
+      <c r="B18" s="14"/>
+      <c r="C18" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="F18" s="15" t="n">
+      <c r="D18" s="23"/>
+      <c r="F18" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="16" t="n">
+      <c r="G18" s="14"/>
+      <c r="H18" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="K18" s="15" t="n">
+      <c r="K18" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="16" t="n">
+      <c r="L18" s="14"/>
+      <c r="M18" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="P18" s="15" t="n">
+      <c r="P18" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="16" t="n">
+      <c r="Q18" s="14"/>
+      <c r="R18" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="U18" s="15" t="n">
+      <c r="U18" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="16" t="n">
+      <c r="V18" s="14"/>
+      <c r="W18" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="15" t="n">
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="21" t="n">
         <v>29</v>
       </c>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="16" t="n">
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="22" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="19"/>
-      <c r="Y19" s="20"/>
+      <c r="D19" s="25"/>
+      <c r="Y19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="19"/>
-      <c r="Y20" s="20"/>
+      <c r="D20" s="25"/>
+      <c r="Y20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="19"/>
-      <c r="F21" s="7" t="n">
+      <c r="D21" s="25"/>
+      <c r="F21" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9" t="n">
+      <c r="G21" s="14"/>
+      <c r="H21" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9" t="n">
+      <c r="L21" s="14"/>
+      <c r="M21" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="P21" s="7" t="n">
+      <c r="P21" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="9" t="n">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15" t="n">
         <v>24</v>
       </c>
-      <c r="U21" s="7" t="n">
+      <c r="U21" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="V21" s="8"/>
-      <c r="W21" s="9" t="n">
+      <c r="V21" s="14"/>
+      <c r="W21" s="15" t="n">
         <v>26</v>
       </c>
-      <c r="Y21" s="20"/>
+      <c r="Y21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="19"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="10" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="10" t="s">
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="10" t="s">
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="20"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="12" t="n">
+      <c r="F23" s="18" t="n">
         <f aca="false">VLOOKUP(F22,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G23" s="13" t="n">
+      <c r="G23" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="14" t="n">
+      <c r="H23" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="12" t="n">
+      <c r="K23" s="18" t="n">
         <f aca="false">VLOOKUP(K22,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L23" s="13" t="n">
+      <c r="L23" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="M23" s="14" t="n">
+      <c r="M23" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="P23" s="12" t="n">
+      <c r="P23" s="18" t="n">
         <f aca="false">VLOOKUP(P22,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q23" s="13" t="n">
+      <c r="Q23" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="R23" s="14" t="n">
+      <c r="R23" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="U23" s="12" t="n">
+      <c r="U23" s="18" t="n">
         <f aca="false">VLOOKUP(U22,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V23" s="13" t="n">
+      <c r="V23" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="W23" s="14" t="n">
+      <c r="W23" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="15" t="n">
+      <c r="F24" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="16" t="n">
+      <c r="G24" s="14"/>
+      <c r="H24" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="K24" s="15" t="n">
+      <c r="I24" s="23"/>
+      <c r="K24" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="16" t="n">
+      <c r="L24" s="14"/>
+      <c r="M24" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="P24" s="15" t="n">
+      <c r="P24" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="16" t="n">
+      <c r="Q24" s="14"/>
+      <c r="R24" s="22" t="n">
         <v>27</v>
       </c>
-      <c r="S24" s="19"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="15" t="n">
+      <c r="S24" s="25"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="21" t="n">
         <v>27</v>
       </c>
-      <c r="V24" s="8"/>
-      <c r="W24" s="16" t="n">
+      <c r="V24" s="14"/>
+      <c r="W24" s="22" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="19"/>
-      <c r="S25" s="19"/>
+      <c r="I25" s="25"/>
+      <c r="S25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="19"/>
-      <c r="S26" s="19"/>
+      <c r="I26" s="25"/>
+      <c r="S26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="19"/>
-      <c r="K27" s="7" t="n">
+      <c r="I27" s="25"/>
+      <c r="K27" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9" t="n">
+      <c r="L27" s="14"/>
+      <c r="M27" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="P27" s="7" t="n">
+      <c r="P27" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="9" t="n">
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15" t="n">
         <v>23</v>
       </c>
-      <c r="S27" s="19"/>
+      <c r="S27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="19"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="10" t="s">
+      <c r="I28" s="25"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="10" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="22"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="12" t="n">
+      <c r="K29" s="18" t="n">
         <f aca="false">VLOOKUP(K28,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L29" s="13" t="n">
+      <c r="L29" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="M29" s="14" t="n">
+      <c r="M29" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="P29" s="12" t="n">
+      <c r="P29" s="18" t="n">
         <f aca="false">VLOOKUP(P28,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q29" s="13" t="n">
+      <c r="Q29" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="R29" s="14" t="n">
+      <c r="R29" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="0"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="16" t="n">
+      <c r="L30" s="14"/>
+      <c r="M30" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="P30" s="15" t="n">
+      <c r="P30" s="21" t="n">
         <v>22</v>
       </c>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="16" t="n">
+      <c r="Q30" s="14"/>
+      <c r="R30" s="22" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="29"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="29"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23"/>
-      <c r="C34" s="24"/>
+      <c r="A34" s="29"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23"/>
-      <c r="C35" s="24"/>
+      <c r="A35" s="29"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="R36" s="27" t="s">
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="R36" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="H37" s="26" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="H37" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="R37" s="27" t="s">
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="R37" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="28"/>
-      <c r="B55" s="30" t="s">
+      <c r="A55" s="33"/>
+      <c r="B55" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30" t="s">
+      <c r="C55" s="35"/>
+      <c r="D55" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="28"/>
-      <c r="B56" s="31" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="32" t="s">
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="28"/>
-      <c r="B57" s="33" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30" t="s">
+      <c r="C58" s="35"/>
+      <c r="D58" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="28"/>
-      <c r="B61" s="35" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28"/>
-      <c r="B62" s="35" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="28"/>
-      <c r="B63" s="35" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="28"/>
-      <c r="B64" s="33" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28"/>
-      <c r="B65" s="34" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="28"/>
-      <c r="B66" s="36" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1912,6 +2942,16 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I2:BJ7 J1:BJ1 I8:V8 X8:BJ8 I1:I13 J9:BJ13">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:BJ13">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1927,10 +2967,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W16" activeCellId="0" sqref="W16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1938,7 +2978,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="42.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1955,416 +2995,1062 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="3" t="n">
+        <v>45572</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>45573</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>45574</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>45575</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>45576</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>45577</v>
+      </c>
+      <c r="O1" s="3" t="n">
+        <v>45578</v>
+      </c>
+      <c r="P1" s="3" t="n">
+        <v>45579</v>
+      </c>
+      <c r="Q1" s="3" t="n">
+        <v>45580</v>
+      </c>
+      <c r="R1" s="3" t="n">
+        <v>45581</v>
+      </c>
+      <c r="S1" s="3" t="n">
+        <v>45582</v>
+      </c>
+      <c r="T1" s="3" t="n">
+        <v>45583</v>
+      </c>
+      <c r="U1" s="3" t="n">
+        <v>45584</v>
+      </c>
+      <c r="V1" s="3" t="n">
+        <v>45585</v>
+      </c>
+      <c r="W1" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="X1" s="3" t="n">
+        <v>45587</v>
+      </c>
+      <c r="Y1" s="3" t="n">
+        <v>45588</v>
+      </c>
+      <c r="Z1" s="3" t="n">
+        <v>45589</v>
+      </c>
+      <c r="AA1" s="3" t="n">
+        <v>45590</v>
+      </c>
+      <c r="AB1" s="3" t="n">
+        <v>45591</v>
+      </c>
+      <c r="AC1" s="3" t="n">
+        <v>45592</v>
+      </c>
+      <c r="AD1" s="3" t="n">
+        <v>45593</v>
+      </c>
+      <c r="AE1" s="3" t="n">
+        <v>45594</v>
+      </c>
+      <c r="AF1" s="3" t="n">
+        <v>45595</v>
+      </c>
+      <c r="AG1" s="3" t="n">
+        <v>45596</v>
+      </c>
+      <c r="AH1" s="3" t="n">
+        <v>45597</v>
+      </c>
+      <c r="AI1" s="3" t="n">
+        <v>45598</v>
+      </c>
+      <c r="AJ1" s="3" t="n">
+        <v>45599</v>
+      </c>
+      <c r="AK1" s="3" t="n">
+        <v>45600</v>
+      </c>
+      <c r="AL1" s="3" t="n">
+        <v>45601</v>
+      </c>
+      <c r="AM1" s="3" t="n">
+        <v>45602</v>
+      </c>
+      <c r="AN1" s="3" t="n">
+        <v>45603</v>
+      </c>
+      <c r="AO1" s="3" t="n">
+        <v>45604</v>
+      </c>
+      <c r="AP1" s="3" t="n">
+        <v>45605</v>
+      </c>
+      <c r="AQ1" s="3" t="n">
+        <v>45606</v>
+      </c>
+      <c r="AR1" s="3" t="n">
+        <v>45607</v>
+      </c>
+      <c r="AS1" s="3" t="n">
+        <v>45608</v>
+      </c>
+      <c r="AT1" s="3" t="n">
+        <v>45609</v>
+      </c>
+      <c r="AU1" s="3" t="n">
+        <v>45610</v>
+      </c>
+      <c r="AV1" s="3" t="n">
+        <v>45611</v>
+      </c>
+      <c r="AW1" s="3" t="n">
+        <v>45612</v>
+      </c>
+      <c r="AX1" s="3" t="n">
+        <v>45613</v>
+      </c>
+      <c r="AY1" s="3" t="n">
+        <v>45614</v>
+      </c>
+      <c r="AZ1" s="3" t="n">
+        <v>45615</v>
+      </c>
+      <c r="BA1" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="BB1" s="3" t="n">
+        <v>45617</v>
+      </c>
+      <c r="BC1" s="3" t="n">
+        <v>45618</v>
+      </c>
+      <c r="BD1" s="3" t="n">
+        <v>45619</v>
+      </c>
+      <c r="BE1" s="3" t="n">
+        <v>45620</v>
+      </c>
+      <c r="BF1" s="3" t="n">
+        <v>45621</v>
+      </c>
+      <c r="BG1" s="3" t="n">
+        <v>45622</v>
+      </c>
+      <c r="BH1" s="3" t="n">
+        <v>45623</v>
+      </c>
+      <c r="BI1" s="3" t="n">
+        <v>45624</v>
+      </c>
+      <c r="BJ1" s="3" t="n">
+        <v>45625</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="n">
         <v>6</v>
       </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
         <v>7</v>
       </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
         <v>5</v>
       </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="37" t="n">
+      <c r="G8" s="6"/>
+      <c r="H8" s="42" t="n">
         <v>3</v>
       </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="10"/>
+      <c r="BJ8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
         <v>6</v>
       </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="10"/>
+      <c r="BJ9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
+      <c r="D10" s="11"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="10"/>
+      <c r="BJ10" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="F12" s="7" t="n">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="F12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="K12" s="7" t="n">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="K12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="P12" s="7" t="n">
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="P12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
-      <c r="U12" s="7" t="n">
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="U12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="V12" s="8"/>
-      <c r="W12" s="9"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="10" t="s">
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="10" t="s">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="18" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="F14" s="12" t="n">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="F14" s="18" t="n">
         <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="K14" s="12" t="n">
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="K14" s="18" t="n">
         <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="P14" s="12" t="n">
+      <c r="L14" s="19"/>
+      <c r="M14" s="20"/>
+      <c r="P14" s="18" t="n">
         <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="U14" s="12" t="n">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+      <c r="U14" s="18" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="V14" s="13"/>
-      <c r="W14" s="14"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="16"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="16"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="16"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="22"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="22"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="W16" s="0"/>
+      <c r="D16" s="25"/>
+      <c r="S16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="19"/>
-      <c r="S17" s="19"/>
+      <c r="D17" s="25"/>
+      <c r="S17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="19"/>
-      <c r="F18" s="7" t="n">
+      <c r="D18" s="25"/>
+      <c r="F18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="K18" s="7" t="n">
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="K18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="P18" s="7" t="n">
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="P18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="19"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="19"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="10" t="s">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="22"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="12" t="n">
+      <c r="F20" s="18" t="n">
         <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="K20" s="12" t="n">
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="K20" s="18" t="n">
         <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="P20" s="12" t="n">
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+      <c r="P20" s="18" t="n">
         <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="15"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="16"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="19"/>
-      <c r="N22" s="19"/>
+      <c r="I22" s="25"/>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="19"/>
-      <c r="N23" s="19"/>
+      <c r="I23" s="25"/>
+      <c r="N23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="19"/>
-      <c r="K24" s="7" t="n">
+      <c r="I24" s="25"/>
+      <c r="K24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="19"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="19"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="10" t="s">
+      <c r="I25" s="25"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="22"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="12" t="n">
+      <c r="K26" s="18" t="n">
         <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>5</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="15"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="16"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2381,13 +4067,23 @@
     <mergeCell ref="K25:M25"/>
   </mergeCells>
   <conditionalFormatting sqref="B14 G14 G20 L14 L20 L26 Q14 Q20 V14">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:BJ7 J1:BJ1 I8:V8 X8:BJ8 I1:I10 J9:BJ10">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:BJ10">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2435,209 +4131,209 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
+      <c r="D10" s="11"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="18" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2647,7 +4343,7 @@
     <mergeCell ref="A13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2666,9 +4362,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2696,240 +4392,237 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
+      <c r="D12" s="11"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="18" t="n">
         <f aca="false">VLOOKUP(A15,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="0"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2938,7 +4631,7 @@
     <mergeCell ref="A15:C15"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2950,4 +4643,313 @@
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.84"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="46" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G2" s="46" t="n">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="45" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="46" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="46" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="46" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="46" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="88">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t xml:space="preserve">Freier Puffer (FAZ-Nachfolger – FEZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufwand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauer = Aufwand (PT) / (Personen * Kapazität (%))</t>
   </si>
   <si>
     <t xml:space="preserve">Datum</t>
@@ -282,12 +294,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="168" formatCode="0\ %"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -564,7 +577,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -733,6 +746,34 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -741,7 +782,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1094,18 +1139,17 @@
   <dimension ref="A1:BJ67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AZ1" activeCellId="0" sqref="AZ1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A14" activeCellId="1" sqref="AB21 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="3.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.42"/>
   </cols>
   <sheetData>
@@ -1306,8 +1350,12 @@
       <c r="H2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -1380,16 +1428,32 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="K3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -1454,16 +1518,32 @@
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="K4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="P4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -1538,15 +1618,27 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
+      <c r="W5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
+      <c r="Z5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
+      <c r="AD5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AF5" s="8"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="8"/>
@@ -1610,18 +1702,34 @@
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
+      <c r="W6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y6" s="12"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="8"/>
+      <c r="Z6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
+      <c r="AD6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AG6" s="9"/>
-      <c r="AH6" s="8"/>
+      <c r="AH6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
@@ -1682,18 +1790,34 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
+      <c r="W7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
+      <c r="Z7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
+      <c r="AD7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AG7" s="9"/>
-      <c r="AH7" s="8"/>
+      <c r="AH7" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
@@ -1767,14 +1891,24 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
+      <c r="AF8" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="8"/>
+      <c r="AH8" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
+      <c r="AK8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
       <c r="AP8" s="8"/>
@@ -1844,14 +1978,26 @@
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
+      <c r="AK9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
+      <c r="AR9" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AS9" s="8"/>
       <c r="AT9" s="8"/>
       <c r="AU9" s="8"/>
@@ -1916,11 +2062,21 @@
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
+      <c r="AK10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AP10" s="8"/>
       <c r="AQ10" s="8"/>
       <c r="AR10" s="8"/>
@@ -1991,18 +2147,34 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
       <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
+      <c r="AN11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AP11" s="8"/>
       <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="10"/>
+      <c r="AR11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
+      <c r="AY11" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ11" s="8"/>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9"/>
@@ -2070,8 +2242,12 @@
       <c r="AP12" s="8"/>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
+      <c r="AS12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AU12" s="8"/>
       <c r="AV12" s="10"/>
       <c r="AW12" s="8"/>
@@ -2149,13 +2325,21 @@
       <c r="AW13" s="8"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
+      <c r="AZ13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="BB13" s="9"/>
-      <c r="BC13" s="10"/>
+      <c r="BC13" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="BD13" s="8"/>
       <c r="BE13" s="8"/>
-      <c r="BF13" s="8"/>
+      <c r="BF13" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="BG13" s="8"/>
       <c r="BH13" s="8"/>
       <c r="BI13" s="10"/>
@@ -2942,13 +3126,43 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:BJ7 J1:BJ1 I8:V8 X8:BJ8 I1:I13 J9:BJ13">
+  <conditionalFormatting sqref="J1:BJ1 X8:BJ8 I9:I13 J9:BJ13 I3:BJ3 N8:V8 I1 N2:BJ2 I5:BJ7 I4:V4 Y4:BJ4">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:BJ13">
+  <conditionalFormatting sqref="N2:BJ3 I3:M7 I9:M13 N5:BJ13 N4:V4 Y4:BJ4">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:M2">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:M2">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:M8">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:M8">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:X4">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(OR(WEEKDAY(W$1)=7,WEEKDAY(W$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:X4">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2967,18 +3181,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ27"/>
+  <dimension ref="A1:BO27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AB21" activeCellId="0" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="12" style="1" width="3.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="42.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="54.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2992,171 +3211,182 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="L1" s="3" t="n">
         <v>45572</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="M1" s="3" t="n">
         <v>45573</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="N1" s="3" t="n">
         <v>45574</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="O1" s="3" t="n">
         <v>45575</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="P1" s="3" t="n">
         <v>45576</v>
       </c>
-      <c r="N1" s="3" t="n">
+      <c r="Q1" s="3" t="n">
         <v>45577</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="R1" s="3" t="n">
         <v>45578</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="S1" s="3" t="n">
         <v>45579</v>
       </c>
-      <c r="Q1" s="3" t="n">
+      <c r="T1" s="3" t="n">
         <v>45580</v>
       </c>
-      <c r="R1" s="3" t="n">
+      <c r="U1" s="3" t="n">
         <v>45581</v>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="V1" s="3" t="n">
         <v>45582</v>
       </c>
-      <c r="T1" s="3" t="n">
+      <c r="W1" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="X1" s="3" t="n">
         <v>45584</v>
       </c>
-      <c r="V1" s="3" t="n">
+      <c r="Y1" s="3" t="n">
         <v>45585</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="Z1" s="3" t="n">
         <v>45586</v>
       </c>
-      <c r="X1" s="3" t="n">
+      <c r="AA1" s="3" t="n">
         <v>45587</v>
       </c>
-      <c r="Y1" s="3" t="n">
+      <c r="AB1" s="3" t="n">
         <v>45588</v>
       </c>
-      <c r="Z1" s="3" t="n">
+      <c r="AC1" s="3" t="n">
         <v>45589</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AD1" s="3" t="n">
         <v>45590</v>
       </c>
-      <c r="AB1" s="3" t="n">
+      <c r="AE1" s="3" t="n">
         <v>45591</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AF1" s="3" t="n">
         <v>45592</v>
       </c>
-      <c r="AD1" s="3" t="n">
+      <c r="AG1" s="3" t="n">
         <v>45593</v>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AH1" s="3" t="n">
         <v>45594</v>
       </c>
-      <c r="AF1" s="3" t="n">
+      <c r="AI1" s="3" t="n">
         <v>45595</v>
       </c>
-      <c r="AG1" s="3" t="n">
+      <c r="AJ1" s="3" t="n">
         <v>45596</v>
       </c>
-      <c r="AH1" s="3" t="n">
+      <c r="AK1" s="3" t="n">
         <v>45597</v>
       </c>
-      <c r="AI1" s="3" t="n">
+      <c r="AL1" s="3" t="n">
         <v>45598</v>
       </c>
-      <c r="AJ1" s="3" t="n">
+      <c r="AM1" s="3" t="n">
         <v>45599</v>
       </c>
-      <c r="AK1" s="3" t="n">
+      <c r="AN1" s="3" t="n">
         <v>45600</v>
       </c>
-      <c r="AL1" s="3" t="n">
+      <c r="AO1" s="3" t="n">
         <v>45601</v>
       </c>
-      <c r="AM1" s="3" t="n">
+      <c r="AP1" s="3" t="n">
         <v>45602</v>
       </c>
-      <c r="AN1" s="3" t="n">
+      <c r="AQ1" s="3" t="n">
         <v>45603</v>
       </c>
-      <c r="AO1" s="3" t="n">
+      <c r="AR1" s="3" t="n">
         <v>45604</v>
       </c>
-      <c r="AP1" s="3" t="n">
+      <c r="AS1" s="3" t="n">
         <v>45605</v>
       </c>
-      <c r="AQ1" s="3" t="n">
+      <c r="AT1" s="3" t="n">
         <v>45606</v>
       </c>
-      <c r="AR1" s="3" t="n">
+      <c r="AU1" s="3" t="n">
         <v>45607</v>
       </c>
-      <c r="AS1" s="3" t="n">
+      <c r="AV1" s="3" t="n">
         <v>45608</v>
       </c>
-      <c r="AT1" s="3" t="n">
+      <c r="AW1" s="3" t="n">
         <v>45609</v>
       </c>
-      <c r="AU1" s="3" t="n">
+      <c r="AX1" s="3" t="n">
         <v>45610</v>
       </c>
-      <c r="AV1" s="3" t="n">
+      <c r="AY1" s="3" t="n">
         <v>45611</v>
       </c>
-      <c r="AW1" s="3" t="n">
+      <c r="AZ1" s="3" t="n">
         <v>45612</v>
       </c>
-      <c r="AX1" s="3" t="n">
+      <c r="BA1" s="3" t="n">
         <v>45613</v>
       </c>
-      <c r="AY1" s="3" t="n">
+      <c r="BB1" s="3" t="n">
         <v>45614</v>
       </c>
-      <c r="AZ1" s="3" t="n">
+      <c r="BC1" s="3" t="n">
         <v>45615</v>
       </c>
-      <c r="BA1" s="3" t="n">
+      <c r="BD1" s="3" t="n">
         <v>45616</v>
       </c>
-      <c r="BB1" s="3" t="n">
+      <c r="BE1" s="3" t="n">
         <v>45617</v>
       </c>
-      <c r="BC1" s="3" t="n">
+      <c r="BF1" s="3" t="n">
         <v>45618</v>
       </c>
-      <c r="BD1" s="3" t="n">
+      <c r="BG1" s="3" t="n">
         <v>45619</v>
       </c>
-      <c r="BE1" s="3" t="n">
+      <c r="BH1" s="3" t="n">
         <v>45620</v>
       </c>
-      <c r="BF1" s="3" t="n">
+      <c r="BI1" s="3" t="n">
         <v>45621</v>
       </c>
-      <c r="BG1" s="3" t="n">
+      <c r="BJ1" s="3" t="n">
         <v>45622</v>
       </c>
-      <c r="BH1" s="3" t="n">
+      <c r="BK1" s="3" t="n">
         <v>45623</v>
       </c>
-      <c r="BI1" s="3" t="n">
+      <c r="BL1" s="3" t="n">
         <v>45624</v>
       </c>
-      <c r="BJ1" s="3" t="n">
+      <c r="BM1" s="3" t="n">
         <v>45625</v>
       </c>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -3175,35 +3405,54 @@
       <c r="H2" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="I2" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <f aca="false">ROUNDUP(H2/(I2*J2),0)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="S2" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
-      <c r="Y2" s="9"/>
+      <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
+      <c r="AB2" s="45"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
-      <c r="AG2" s="9"/>
+      <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="9"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="8"/>
@@ -3214,21 +3463,26 @@
       <c r="AS2" s="8"/>
       <c r="AT2" s="8"/>
       <c r="AU2" s="8"/>
-      <c r="AV2" s="10"/>
+      <c r="AV2" s="8"/>
       <c r="AW2" s="8"/>
       <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
+      <c r="AY2" s="10"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="10"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
       <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="10"/>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
-      <c r="BI2" s="10"/>
+      <c r="BI2" s="8"/>
       <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -3247,35 +3501,56 @@
       <c r="H3" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="I3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <f aca="false">ROUNDUP(H3/(I3*J3),0)</f>
+        <v>7</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="X3" s="8"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="9"/>
+      <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="9"/>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
@@ -3286,21 +3561,26 @@
       <c r="AS3" s="8"/>
       <c r="AT3" s="8"/>
       <c r="AU3" s="8"/>
-      <c r="AV3" s="10"/>
+      <c r="AV3" s="8"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
+      <c r="AY3" s="10"/>
       <c r="AZ3" s="8"/>
       <c r="BA3" s="8"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="10"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
       <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="10"/>
       <c r="BG3" s="8"/>
       <c r="BH3" s="8"/>
-      <c r="BI3" s="10"/>
+      <c r="BI3" s="8"/>
       <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -3321,35 +3601,56 @@
       <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <f aca="false">ROUNDUP(H4/(I4*J4),0)</f>
+        <v>4</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="X4" s="8"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="45" t="n">
+        <v>1</v>
+      </c>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
-      <c r="AG4" s="9"/>
+      <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="9"/>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
@@ -3360,21 +3661,26 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
-      <c r="AV4" s="10"/>
+      <c r="AV4" s="8"/>
       <c r="AW4" s="8"/>
       <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
+      <c r="AY4" s="10"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="10"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="10"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
-      <c r="BI4" s="10"/>
+      <c r="BI4" s="8"/>
       <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -3393,35 +3699,50 @@
       <c r="H5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <f aca="false">ROUNDUP(H5/(I5*J5),0)</f>
+        <v>4</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="9"/>
+      <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="8"/>
+      <c r="AG5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="9"/>
       <c r="AL5" s="8"/>
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
@@ -3432,21 +3753,26 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
-      <c r="AV5" s="10"/>
+      <c r="AV5" s="8"/>
       <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
+      <c r="AY5" s="10"/>
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="10"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="10"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
-      <c r="BI5" s="10"/>
+      <c r="BI5" s="8"/>
       <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -3465,9 +3791,16 @@
       <c r="H6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="I6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <f aca="false">ROUNDUP(H6/(I6*J6),0)</f>
+        <v>5</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -3476,24 +3809,32 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="7"/>
+      <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="12"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="8"/>
+      <c r="AG6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="9"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
@@ -3504,21 +3845,26 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="8"/>
       <c r="AU6" s="8"/>
-      <c r="AV6" s="10"/>
+      <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
       <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
+      <c r="AY6" s="10"/>
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="10"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
       <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
+      <c r="BE6" s="47"/>
+      <c r="BF6" s="10"/>
       <c r="BG6" s="8"/>
       <c r="BH6" s="8"/>
-      <c r="BI6" s="10"/>
+      <c r="BI6" s="8"/>
       <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -3537,35 +3883,52 @@
       <c r="H7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="I7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <f aca="false">ROUNDUP(H7/(I7*J7),0)</f>
+        <v>5</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
+      <c r="AG7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="9"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
@@ -3576,21 +3939,26 @@
       <c r="AS7" s="8"/>
       <c r="AT7" s="8"/>
       <c r="AU7" s="8"/>
-      <c r="AV7" s="10"/>
+      <c r="AV7" s="8"/>
       <c r="AW7" s="8"/>
       <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
+      <c r="AY7" s="10"/>
       <c r="AZ7" s="8"/>
       <c r="BA7" s="8"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="10"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
       <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
+      <c r="BE7" s="47"/>
+      <c r="BF7" s="10"/>
       <c r="BG7" s="8"/>
       <c r="BH7" s="8"/>
-      <c r="BI7" s="10"/>
+      <c r="BI7" s="8"/>
       <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="10"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -3610,40 +3978,53 @@
         <v>12</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="42" t="n">
+      <c r="H8" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <f aca="false">ROUNDUP(H8/(I8*J8),0)</f>
+        <v>3</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="8"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="8"/>
+      <c r="Y8" s="8"/>
       <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
+      <c r="AB8" s="45"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="9"/>
+      <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
+      <c r="AI8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="9"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
+      <c r="AN8" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AO8" s="8"/>
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
@@ -3651,21 +4032,26 @@
       <c r="AS8" s="8"/>
       <c r="AT8" s="8"/>
       <c r="AU8" s="8"/>
-      <c r="AV8" s="10"/>
+      <c r="AV8" s="8"/>
       <c r="AW8" s="8"/>
       <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
+      <c r="AY8" s="10"/>
       <c r="AZ8" s="8"/>
       <c r="BA8" s="8"/>
-      <c r="BB8" s="9"/>
-      <c r="BC8" s="10"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
       <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
+      <c r="BE8" s="47"/>
+      <c r="BF8" s="10"/>
       <c r="BG8" s="8"/>
       <c r="BH8" s="8"/>
-      <c r="BI8" s="10"/>
+      <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="10"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -3686,14 +4072,21 @@
       <c r="H9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <f aca="false">ROUNDUP(H9/(I9*J9),0)</f>
+        <v>3</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -3702,44 +4095,61 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="9"/>
+      <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
+      <c r="AB9" s="45"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
-      <c r="AG9" s="9"/>
+      <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
+      <c r="AJ9" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="9"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
+      <c r="AN9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AS9" s="8"/>
       <c r="AT9" s="8"/>
       <c r="AU9" s="8"/>
-      <c r="AV9" s="10"/>
+      <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
       <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
+      <c r="AY9" s="10"/>
       <c r="AZ9" s="8"/>
       <c r="BA9" s="8"/>
-      <c r="BB9" s="9"/>
-      <c r="BC9" s="10"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
       <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
+      <c r="BE9" s="47"/>
+      <c r="BF9" s="10"/>
       <c r="BG9" s="8"/>
       <c r="BH9" s="8"/>
-      <c r="BI9" s="10"/>
+      <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="10"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -3758,35 +4168,42 @@
       <c r="H10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <f aca="false">ROUNDUP(H10/(I10*J10),0)</f>
+        <v>1</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
-      <c r="Y10" s="9"/>
+      <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
+      <c r="AB10" s="45"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
-      <c r="AG10" s="9"/>
+      <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="9"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
@@ -3796,49 +4213,77 @@
       <c r="AR10" s="8"/>
       <c r="AS10" s="8"/>
       <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="10"/>
+      <c r="AU10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
+      <c r="AY10" s="10"/>
       <c r="AZ10" s="8"/>
       <c r="BA10" s="8"/>
-      <c r="BB10" s="9"/>
-      <c r="BC10" s="10"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
       <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
+      <c r="BE10" s="47"/>
+      <c r="BF10" s="10"/>
       <c r="BG10" s="8"/>
       <c r="BH10" s="8"/>
-      <c r="BI10" s="10"/>
+      <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="10"/>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
         <v>0</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="n">
+        <f aca="false">A12+A14</f>
+        <v>2</v>
+      </c>
       <c r="F12" s="13" t="n">
-        <v>0</v>
+        <f aca="false">C12</f>
+        <v>2</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="15" t="n">
+        <f aca="false">F12+F14</f>
+        <v>9</v>
+      </c>
       <c r="K12" s="13" t="n">
-        <v>0</v>
+        <f aca="false">H12</f>
+        <v>9</v>
       </c>
       <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
+      <c r="M12" s="15" t="n">
+        <f aca="false">K12+K14</f>
+        <v>13</v>
+      </c>
       <c r="P12" s="13" t="n">
-        <v>0</v>
+        <f aca="false">M12</f>
+        <v>13</v>
       </c>
       <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="R12" s="15" t="n">
+        <f aca="false">P12+P14</f>
+        <v>16</v>
+      </c>
       <c r="U12" s="13" t="n">
-        <v>0</v>
+        <f aca="false">MAX(R12,R18)</f>
+        <v>16</v>
       </c>
       <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
+      <c r="W12" s="15" t="n">
+        <f aca="false">U12+U14</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
@@ -3846,7 +4291,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="43"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="17"/>
       <c r="F13" s="16" t="s">
         <v>5</v>
@@ -3877,55 +4322,114 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="n">
-        <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+        <f aca="false">VLOOKUP(A13,$A$2:$K$10,11)</f>
+        <v>2</v>
+      </c>
+      <c r="B14" s="19" t="n">
+        <f aca="false">C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="20" t="n">
+        <f aca="false">MIN(F12,F18)-C12</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="18" t="n">
-        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <f aca="false">VLOOKUP(F13,$A$2:$K$10,11)</f>
         <v>7</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="19" t="n">
+        <f aca="false">H15-H12</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="20" t="n">
+        <f aca="false">K12-H12</f>
+        <v>0</v>
+      </c>
       <c r="K14" s="18" t="n">
-        <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
+        <f aca="false">VLOOKUP(K13,$A$2:$K$10,11)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
+      <c r="L14" s="19" t="n">
+        <f aca="false">M15-M12</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <f aca="false">P12-M12</f>
+        <v>0</v>
+      </c>
       <c r="P14" s="18" t="n">
-        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <f aca="false">VLOOKUP(P13,$A$2:$K$10,11)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
+      <c r="Q14" s="19" t="n">
+        <f aca="false">R15-R12</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="20" t="n">
+        <f aca="false">U12-R12</f>
+        <v>0</v>
+      </c>
       <c r="U14" s="18" t="n">
-        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <f aca="false">VLOOKUP(U13,$A$2:$K$10,11)</f>
+        <v>1</v>
+      </c>
+      <c r="V14" s="19" t="n">
+        <f aca="false">W15-W12</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="n">
+        <f aca="false">C15-A14</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="22" t="n">
+        <f aca="false">MIN(F15,F21)</f>
         <v>2</v>
       </c>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="22"/>
       <c r="D15" s="23"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21" t="n">
+        <f aca="false">H15-F14</f>
+        <v>2</v>
+      </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="22"/>
-      <c r="K15" s="21"/>
+      <c r="H15" s="22" t="n">
+        <f aca="false">K15</f>
+        <v>9</v>
+      </c>
+      <c r="K15" s="21" t="n">
+        <f aca="false">M15-K14</f>
+        <v>9</v>
+      </c>
       <c r="L15" s="14"/>
-      <c r="M15" s="22"/>
-      <c r="P15" s="21"/>
+      <c r="M15" s="22" t="n">
+        <f aca="false">P15</f>
+        <v>13</v>
+      </c>
+      <c r="P15" s="21" t="n">
+        <f aca="false">R15-P14</f>
+        <v>13</v>
+      </c>
       <c r="Q15" s="14"/>
-      <c r="R15" s="22"/>
+      <c r="R15" s="22" t="n">
+        <f aca="false">U15</f>
+        <v>16</v>
+      </c>
       <c r="S15" s="25"/>
       <c r="T15" s="27"/>
-      <c r="U15" s="21"/>
+      <c r="U15" s="21" t="n">
+        <f aca="false">W15-U14</f>
+        <v>16</v>
+      </c>
       <c r="V15" s="14"/>
-      <c r="W15" s="22"/>
+      <c r="W15" s="22" t="n">
+        <f aca="false">W12</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="25"/>
@@ -3938,20 +4442,32 @@
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="25"/>
       <c r="F18" s="13" t="n">
-        <v>0</v>
+        <f aca="false">C12</f>
+        <v>2</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="15" t="n">
+        <f aca="false">F18+F20</f>
+        <v>6</v>
+      </c>
       <c r="K18" s="13" t="n">
-        <v>0</v>
+        <f aca="false">H18</f>
+        <v>6</v>
       </c>
       <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
+      <c r="M18" s="15" t="n">
+        <f aca="false">K18+K20</f>
+        <v>11</v>
+      </c>
       <c r="P18" s="13" t="n">
-        <v>0</v>
+        <f aca="false">MAX(M18,M24)</f>
+        <v>11</v>
       </c>
       <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="R18" s="15" t="n">
+        <f aca="false">P18+P20</f>
+        <v>14</v>
+      </c>
       <c r="S18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,40 +4493,92 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="28"/>
+      <c r="W19" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="18" t="n">
-        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
-        <v>7</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+        <f aca="false">VLOOKUP(F19,$A$2:$K$10,11)</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="19" t="n">
+        <f aca="false">H21-H18</f>
+        <v>2</v>
+      </c>
+      <c r="H20" s="20" t="n">
+        <f aca="false">MIN(K18,K24)-H18</f>
+        <v>0</v>
+      </c>
       <c r="K20" s="18" t="n">
-        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <f aca="false">VLOOKUP(K19,$A$2:$K$10,11)</f>
+        <v>5</v>
+      </c>
+      <c r="L20" s="19" t="n">
+        <f aca="false">M21-M18</f>
+        <v>2</v>
+      </c>
+      <c r="M20" s="20" t="n">
+        <f aca="false">P18-M18</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="18" t="n">
+        <f aca="false">VLOOKUP(P19,$A$2:$K$10,11)</f>
+        <v>3</v>
+      </c>
+      <c r="Q20" s="19" t="n">
+        <f aca="false">R21-R18</f>
+        <v>2</v>
+      </c>
+      <c r="R20" s="20" t="n">
+        <f aca="false">U12-R18</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="21" t="n">
+        <f aca="false">H21-F20</f>
         <v>4</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="P20" s="18" t="n">
-        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="21"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="22" t="n">
+        <f aca="false">MIN(K21,K27)</f>
+        <v>8</v>
+      </c>
       <c r="I21" s="23"/>
-      <c r="K21" s="21"/>
+      <c r="K21" s="21" t="n">
+        <f aca="false">M21-K20</f>
+        <v>8</v>
+      </c>
       <c r="L21" s="14"/>
-      <c r="M21" s="22"/>
+      <c r="M21" s="22" t="n">
+        <f aca="false">P21</f>
+        <v>13</v>
+      </c>
       <c r="N21" s="25"/>
       <c r="O21" s="27"/>
-      <c r="P21" s="21"/>
+      <c r="P21" s="21" t="n">
+        <f aca="false">R21-P20</f>
+        <v>13</v>
+      </c>
       <c r="Q21" s="14"/>
-      <c r="R21" s="22"/>
+      <c r="R21" s="22" t="n">
+        <f aca="false">U15</f>
+        <v>16</v>
+      </c>
+      <c r="AB21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I22" s="25"/>
@@ -4023,10 +4591,14 @@
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I24" s="25"/>
       <c r="K24" s="13" t="n">
-        <v>0</v>
+        <f aca="false">H18</f>
+        <v>6</v>
       </c>
       <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
+      <c r="M24" s="15" t="n">
+        <f aca="false">K24+K26</f>
+        <v>11</v>
+      </c>
       <c r="N24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,19 +4613,31 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K26" s="18" t="n">
-        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
+        <f aca="false">VLOOKUP(K25,$A$2:$K$10,11)</f>
         <v>5</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
+      <c r="L26" s="19" t="n">
+        <f aca="false">M27-M24</f>
+        <v>2</v>
+      </c>
+      <c r="M26" s="20" t="n">
+        <f aca="false">P18-M24</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="21"/>
+      <c r="K27" s="21" t="n">
+        <f aca="false">M27-K26</f>
+        <v>8</v>
+      </c>
       <c r="L27" s="14"/>
-      <c r="M27" s="22"/>
+      <c r="M27" s="22" t="n">
+        <f aca="false">P21</f>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A13:C13"/>
@@ -4064,9 +4648,10 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="P19:R19"/>
+    <mergeCell ref="W19:AI19"/>
     <mergeCell ref="K25:M25"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14 G14 G20 L14 L20 L26 Q14 Q20 V14">
+  <conditionalFormatting sqref="V14 Q14 Q20 L20 L14 L26 G20 G14 B14 H14:J10">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
@@ -4076,12 +4661,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:BJ7 J1:BJ1 I8:V8 X8:BJ8 I1:I10 J9:BJ10">
+  <conditionalFormatting sqref="L2:BM7 M1:BM1 L8:Y8 AA8:BM8 L1:L10 M9:BM10">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+      <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:BJ10">
+  <conditionalFormatting sqref="L2:BM10">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>1</formula>
     </cfRule>
@@ -4104,7 +4689,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="AB21 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4365,7 +4950,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="AB21 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4653,12 +5238,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="1" sqref="AB21 B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="8.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.53"/>
@@ -4666,277 +5251,277 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
-        <v>41</v>
+      <c r="A1" s="52" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="n">
+      <c r="A2" s="53" t="n">
         <v>45297</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>43</v>
+      <c r="B2" s="52" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="46" t="n">
+        <v>49</v>
+      </c>
+      <c r="F2" s="54" t="n">
         <v>45413</v>
       </c>
-      <c r="G2" s="46" t="n">
+      <c r="G2" s="54" t="n">
         <v>45414</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="n">
+      <c r="A3" s="53" t="n">
         <v>45359</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>46</v>
+      <c r="B3" s="52" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="n">
+      <c r="A4" s="53" t="n">
         <v>45380</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>50</v>
+      <c r="B4" s="52" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="53" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>48</v>
-      </c>
       <c r="E5" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="53" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="53" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="53" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="n">
-        <v>45413</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="30" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="53" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="53" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="53" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="n">
-        <v>45421</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="E11" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="53" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="53" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="54" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="n">
-        <v>45432</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="n">
-        <v>45442</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="E14" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="54" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="54" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="54" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="n">
-        <v>45519</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="n">
-        <v>45555</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45" t="n">
-        <v>45568</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="45" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="n">
-        <v>45616</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="n">
-        <v>45651</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>59</v>
-      </c>
       <c r="E17" s="30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>12</v>

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:AP67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y22" activeCellId="0" sqref="Y22"/>
+      <selection pane="topLeft" activeCell="T29" activeCellId="0" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1816,24 +1816,48 @@
       <c r="AP13" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
+      <c r="A15" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="F15" s="16"/>
+      <c r="C15" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="K15" s="16"/>
+      <c r="H15" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K15" s="16" t="n">
+        <v>14</v>
+      </c>
       <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
-      <c r="P15" s="16"/>
+      <c r="M15" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="P15" s="16" t="n">
+        <v>23</v>
+      </c>
       <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
-      <c r="U15" s="16"/>
+      <c r="R15" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="U15" s="16" t="n">
+        <v>28</v>
+      </c>
       <c r="V15" s="17"/>
-      <c r="W15" s="18"/>
-      <c r="Z15" s="16"/>
+      <c r="W15" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="16" t="n">
+        <v>32</v>
+      </c>
       <c r="AA15" s="17"/>
-      <c r="AB15" s="18"/>
+      <c r="AB15" s="18" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
@@ -1882,65 +1906,113 @@
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" s="25"/>
       <c r="F17" s="22" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>13</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" s="22" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
+      <c r="L17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="P17" s="22" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
+      <c r="Q17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="U17" s="22" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="V17" s="23"/>
-      <c r="W17" s="24"/>
+      <c r="V17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Y17" s="26"/>
       <c r="Z17" s="22" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="24"/>
+      <c r="AA17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="AD17" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28"/>
+      <c r="A18" s="28" t="n">
+        <v>0</v>
+      </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="29"/>
+      <c r="C18" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" s="30"/>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28" t="n">
+        <v>1</v>
+      </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="29"/>
-      <c r="K18" s="28"/>
+      <c r="H18" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" s="28" t="n">
+        <v>14</v>
+      </c>
       <c r="L18" s="17"/>
-      <c r="M18" s="29"/>
-      <c r="P18" s="28"/>
+      <c r="M18" s="29" t="n">
+        <v>23</v>
+      </c>
+      <c r="P18" s="28" t="n">
+        <v>23</v>
+      </c>
       <c r="Q18" s="17"/>
-      <c r="R18" s="29"/>
-      <c r="U18" s="28"/>
+      <c r="R18" s="29" t="n">
+        <v>28</v>
+      </c>
+      <c r="U18" s="28" t="n">
+        <v>28</v>
+      </c>
       <c r="V18" s="17"/>
-      <c r="W18" s="29"/>
+      <c r="W18" s="29" t="n">
+        <v>32</v>
+      </c>
       <c r="X18" s="31"/>
-      <c r="Z18" s="28"/>
+      <c r="Z18" s="28" t="n">
+        <v>32</v>
+      </c>
       <c r="AA18" s="17"/>
-      <c r="AB18" s="29"/>
+      <c r="AB18" s="29" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="31"/>
@@ -1948,18 +2020,34 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="31"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="K20" s="16"/>
+      <c r="H20" s="18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K20" s="16" t="n">
+        <v>16</v>
+      </c>
       <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
-      <c r="P20" s="16"/>
+      <c r="M20" s="18" t="n">
+        <v>21</v>
+      </c>
+      <c r="P20" s="16" t="n">
+        <v>21</v>
+      </c>
       <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
-      <c r="U20" s="16"/>
+      <c r="R20" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="U20" s="16" t="n">
+        <v>29</v>
+      </c>
       <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
+      <c r="W20" s="18" t="n">
+        <v>31</v>
+      </c>
       <c r="X20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,44 +2086,76 @@
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>15</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I22" s="25"/>
       <c r="K22" s="22" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
+      <c r="L22" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="P22" s="22" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="24"/>
+      <c r="Q22" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="T22" s="21"/>
       <c r="U22" s="22" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="23"/>
-      <c r="W22" s="24"/>
+      <c r="V22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="28"/>
+      <c r="F23" s="28" t="n">
+        <v>2</v>
+      </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="29"/>
+      <c r="H23" s="29" t="n">
+        <v>17</v>
+      </c>
       <c r="I23" s="30"/>
-      <c r="K23" s="28"/>
+      <c r="K23" s="28" t="n">
+        <v>19</v>
+      </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="29"/>
-      <c r="P23" s="28"/>
+      <c r="M23" s="29" t="n">
+        <v>24</v>
+      </c>
+      <c r="P23" s="28" t="n">
+        <v>24</v>
+      </c>
       <c r="Q23" s="17"/>
-      <c r="R23" s="29"/>
+      <c r="R23" s="29" t="n">
+        <v>30</v>
+      </c>
       <c r="S23" s="31"/>
-      <c r="U23" s="28"/>
+      <c r="U23" s="28" t="n">
+        <v>30</v>
+      </c>
       <c r="V23" s="17"/>
-      <c r="W23" s="29"/>
+      <c r="W23" s="29" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I24" s="31"/>
@@ -2043,12 +2163,20 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I25" s="31"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="16" t="n">
+        <v>16</v>
+      </c>
       <c r="L25" s="17"/>
-      <c r="M25" s="18"/>
-      <c r="P25" s="16"/>
+      <c r="M25" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="P25" s="16" t="n">
+        <v>24</v>
+      </c>
       <c r="Q25" s="17"/>
-      <c r="R25" s="18"/>
+      <c r="R25" s="18" t="n">
+        <v>29</v>
+      </c>
       <c r="S25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,22 +2201,38 @@
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
+      <c r="L27" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="P27" s="22" t="n">
         <f aca="false">VLOOKUP(P26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="24"/>
+      <c r="Q27" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="28"/>
+      <c r="K28" s="28" t="n">
+        <v>17</v>
+      </c>
       <c r="L28" s="17"/>
-      <c r="M28" s="29"/>
-      <c r="P28" s="28"/>
+      <c r="M28" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="P28" s="28" t="n">
+        <v>25</v>
+      </c>
       <c r="Q28" s="17"/>
-      <c r="R28" s="29"/>
+      <c r="R28" s="29" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="90">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -300,12 +300,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -330,6 +331,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF8000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -339,13 +347,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF729FCF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF8000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -434,12 +435,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFED7D31"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -513,8 +520,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55308D"/>
+        <bgColor rgb="FF203864"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -648,8 +661,22 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,8 +700,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -683,7 +713,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -691,15 +721,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -707,11 +737,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,7 +749,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -739,7 +769,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -747,11 +777,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -763,15 +793,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -787,47 +817,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -839,11 +869,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -851,15 +889,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -875,10 +905,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -912,10 +938,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="75" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="75" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -923,16 +961,25 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Gantt" xfId="20"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1156,6 +1203,34 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFF8000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1213,7 +1288,7 @@
       <rgbColor rgb="FF443205"/>
       <rgbColor rgb="FF843C0B"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -2677,7 +2752,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
@@ -2939,9 +3014,6 @@
       <c r="W12" s="18" t="n">
         <v>26</v>
       </c>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
-      <c r="AB12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
@@ -2977,9 +3049,6 @@
       </c>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
@@ -3035,9 +3104,6 @@
       <c r="W14" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
-      <c r="AB14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="n">
@@ -3077,9 +3143,6 @@
       <c r="W15" s="29" t="n">
         <v>26</v>
       </c>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="31"/>
@@ -3327,7 +3390,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DA27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
@@ -3351,9 +3414,6 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="CY1" s="0"/>
-      <c r="CZ1" s="0"/>
-      <c r="DA1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -3371,9 +3431,6 @@
       <c r="E2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="CY2" s="0"/>
-      <c r="CZ2" s="0"/>
-      <c r="DA2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -3387,9 +3444,6 @@
       <c r="E3" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="CY3" s="0"/>
-      <c r="CZ3" s="0"/>
-      <c r="DA3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -3403,9 +3457,6 @@
       <c r="E4" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="CY4" s="0"/>
-      <c r="CZ4" s="0"/>
-      <c r="DA4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -3419,9 +3470,6 @@
       <c r="E5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="CY5" s="0"/>
-      <c r="CZ5" s="0"/>
-      <c r="DA5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -3435,9 +3483,6 @@
       <c r="E6" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="CY6" s="0"/>
-      <c r="CZ6" s="0"/>
-      <c r="DA6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -3451,9 +3496,6 @@
       <c r="E7" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="CY7" s="0"/>
-      <c r="CZ7" s="0"/>
-      <c r="DA7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -3469,9 +3511,6 @@
       <c r="E8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="CY8" s="0"/>
-      <c r="CZ8" s="0"/>
-      <c r="DA8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -3485,9 +3524,6 @@
       <c r="E9" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="CY9" s="0"/>
-      <c r="CZ9" s="0"/>
-      <c r="DA9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -3499,9 +3535,6 @@
       <c r="E10" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="CY10" s="0"/>
-      <c r="CZ10" s="0"/>
-      <c r="DA10" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="n">
@@ -3525,9 +3558,6 @@
       <c r="M12" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
       <c r="U12" s="16" t="n">
         <v>59</v>
       </c>
@@ -3558,9 +3588,9 @@
       <c r="M13" s="19"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
       <c r="U13" s="19" t="s">
@@ -3597,9 +3627,6 @@
       <c r="M14" s="37" t="n">
         <v>31</v>
       </c>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
       <c r="U14" s="22" t="n">
         <v>4</v>
       </c>
@@ -3618,7 +3645,7 @@
       <c r="C15" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="50"/>
       <c r="F15" s="28" t="n">
         <v>46</v>
       </c>
@@ -3633,11 +3660,8 @@
       <c r="M15" s="29" t="n">
         <v>59</v>
       </c>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="53"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="52"/>
       <c r="U15" s="28" t="n">
         <v>59</v>
       </c>
@@ -3647,15 +3671,15 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="54"/>
-      <c r="S16" s="55"/>
+      <c r="D16" s="53"/>
+      <c r="S16" s="54"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="54"/>
-      <c r="S17" s="55"/>
+      <c r="D17" s="53"/>
+      <c r="S17" s="54"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="54"/>
+      <c r="D18" s="53"/>
       <c r="F18" s="16" t="n">
         <v>15</v>
       </c>
@@ -3677,10 +3701,10 @@
       <c r="R18" s="18" t="n">
         <v>59</v>
       </c>
-      <c r="S18" s="55"/>
+      <c r="S18" s="54"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="54"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="49"/>
       <c r="F19" s="19" t="s">
         <v>6</v>
@@ -3701,10 +3725,10 @@
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
-      <c r="S19" s="56"/>
+      <c r="S19" s="55"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="57"/>
+      <c r="D20" s="56"/>
       <c r="F20" s="22" t="n">
         <v>14</v>
       </c>
@@ -3734,7 +3758,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="57"/>
+      <c r="D21" s="56"/>
       <c r="F21" s="28" t="n">
         <v>15</v>
       </c>
@@ -3749,7 +3773,7 @@
       <c r="M21" s="29" t="n">
         <v>44</v>
       </c>
-      <c r="O21" s="53"/>
+      <c r="O21" s="52"/>
       <c r="P21" s="28" t="n">
         <v>44</v>
       </c>
@@ -3759,15 +3783,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="57"/>
-      <c r="O22" s="57"/>
+      <c r="D22" s="56"/>
+      <c r="O22" s="56"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="57"/>
-      <c r="O23" s="57"/>
+      <c r="D23" s="56"/>
+      <c r="O23" s="56"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="57"/>
+      <c r="D24" s="56"/>
       <c r="F24" s="16" t="n">
         <v>15</v>
       </c>
@@ -3782,10 +3806,10 @@
       <c r="M24" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="O24" s="57"/>
+      <c r="O24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="58"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="49"/>
       <c r="F25" s="19" t="s">
         <v>3</v>
@@ -3800,7 +3824,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="49"/>
-      <c r="O25" s="57"/>
+      <c r="O25" s="56"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="22" t="n">
@@ -3871,10 +3895,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CT27"/>
+  <dimension ref="A1:BT29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3883,7 +3907,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="9" style="1" width="3.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3895,9 +3919,207 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="CR1" s="0"/>
-      <c r="CS1" s="0"/>
-      <c r="CT1" s="0"/>
+      <c r="F1" s="58" t="n">
+        <v>45593</v>
+      </c>
+      <c r="G1" s="58" t="n">
+        <v>45594</v>
+      </c>
+      <c r="H1" s="58" t="n">
+        <v>45595</v>
+      </c>
+      <c r="I1" s="59" t="n">
+        <v>45596</v>
+      </c>
+      <c r="J1" s="59" t="n">
+        <v>45597</v>
+      </c>
+      <c r="K1" s="58" t="n">
+        <v>45598</v>
+      </c>
+      <c r="L1" s="58" t="n">
+        <v>45599</v>
+      </c>
+      <c r="M1" s="58" t="n">
+        <v>45600</v>
+      </c>
+      <c r="N1" s="58" t="n">
+        <v>45601</v>
+      </c>
+      <c r="O1" s="58" t="n">
+        <v>45602</v>
+      </c>
+      <c r="P1" s="58" t="n">
+        <v>45603</v>
+      </c>
+      <c r="Q1" s="58" t="n">
+        <v>45604</v>
+      </c>
+      <c r="R1" s="58" t="n">
+        <v>45605</v>
+      </c>
+      <c r="S1" s="58" t="n">
+        <v>45606</v>
+      </c>
+      <c r="T1" s="58" t="n">
+        <v>45607</v>
+      </c>
+      <c r="U1" s="58" t="n">
+        <v>45608</v>
+      </c>
+      <c r="V1" s="58" t="n">
+        <v>45609</v>
+      </c>
+      <c r="W1" s="58" t="n">
+        <v>45610</v>
+      </c>
+      <c r="X1" s="58" t="n">
+        <v>45611</v>
+      </c>
+      <c r="Y1" s="58" t="n">
+        <v>45612</v>
+      </c>
+      <c r="Z1" s="58" t="n">
+        <v>45613</v>
+      </c>
+      <c r="AA1" s="58" t="n">
+        <v>45614</v>
+      </c>
+      <c r="AB1" s="58" t="n">
+        <v>45615</v>
+      </c>
+      <c r="AC1" s="58" t="n">
+        <v>45616</v>
+      </c>
+      <c r="AD1" s="58" t="n">
+        <v>45617</v>
+      </c>
+      <c r="AE1" s="58" t="n">
+        <v>45618</v>
+      </c>
+      <c r="AF1" s="58" t="n">
+        <v>45619</v>
+      </c>
+      <c r="AG1" s="58" t="n">
+        <v>45620</v>
+      </c>
+      <c r="AH1" s="58" t="n">
+        <v>45621</v>
+      </c>
+      <c r="AI1" s="58" t="n">
+        <v>45622</v>
+      </c>
+      <c r="AJ1" s="58" t="n">
+        <v>45623</v>
+      </c>
+      <c r="AK1" s="58" t="n">
+        <v>45624</v>
+      </c>
+      <c r="AL1" s="58" t="n">
+        <v>45625</v>
+      </c>
+      <c r="AM1" s="58" t="n">
+        <v>45626</v>
+      </c>
+      <c r="AN1" s="58" t="n">
+        <v>45627</v>
+      </c>
+      <c r="AO1" s="58" t="n">
+        <v>45628</v>
+      </c>
+      <c r="AP1" s="58" t="n">
+        <v>45629</v>
+      </c>
+      <c r="AQ1" s="58" t="n">
+        <v>45630</v>
+      </c>
+      <c r="AR1" s="58" t="n">
+        <v>45631</v>
+      </c>
+      <c r="AS1" s="58" t="n">
+        <v>45632</v>
+      </c>
+      <c r="AT1" s="58" t="n">
+        <v>45633</v>
+      </c>
+      <c r="AU1" s="58" t="n">
+        <v>45634</v>
+      </c>
+      <c r="AV1" s="58" t="n">
+        <v>45635</v>
+      </c>
+      <c r="AW1" s="58" t="n">
+        <v>45636</v>
+      </c>
+      <c r="AX1" s="58" t="n">
+        <v>45637</v>
+      </c>
+      <c r="AY1" s="58" t="n">
+        <v>45638</v>
+      </c>
+      <c r="AZ1" s="58" t="n">
+        <v>45639</v>
+      </c>
+      <c r="BA1" s="58" t="n">
+        <v>45640</v>
+      </c>
+      <c r="BB1" s="58" t="n">
+        <v>45641</v>
+      </c>
+      <c r="BC1" s="58" t="n">
+        <v>45642</v>
+      </c>
+      <c r="BD1" s="58" t="n">
+        <v>45643</v>
+      </c>
+      <c r="BE1" s="58" t="n">
+        <v>45644</v>
+      </c>
+      <c r="BF1" s="58" t="n">
+        <v>45645</v>
+      </c>
+      <c r="BG1" s="58" t="n">
+        <v>45646</v>
+      </c>
+      <c r="BH1" s="58" t="n">
+        <v>45647</v>
+      </c>
+      <c r="BI1" s="58" t="n">
+        <v>45648</v>
+      </c>
+      <c r="BJ1" s="58" t="n">
+        <v>45649</v>
+      </c>
+      <c r="BK1" s="59" t="n">
+        <v>45650</v>
+      </c>
+      <c r="BL1" s="59" t="n">
+        <v>45651</v>
+      </c>
+      <c r="BM1" s="59" t="n">
+        <v>45652</v>
+      </c>
+      <c r="BN1" s="58" t="n">
+        <v>45653</v>
+      </c>
+      <c r="BO1" s="58" t="n">
+        <v>45654</v>
+      </c>
+      <c r="BP1" s="58" t="n">
+        <v>45655</v>
+      </c>
+      <c r="BQ1" s="58" t="n">
+        <v>45656</v>
+      </c>
+      <c r="BR1" s="58" t="n">
+        <v>45657</v>
+      </c>
+      <c r="BS1" s="58" t="n">
+        <v>45658</v>
+      </c>
+      <c r="BT1" s="58" t="n">
+        <v>45659</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -3915,9 +4137,11 @@
       <c r="E2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="CR2" s="0"/>
-      <c r="CS2" s="0"/>
-      <c r="CT2" s="0"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -3931,9 +4155,11 @@
       <c r="E3" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="CR3" s="0"/>
-      <c r="CS3" s="0"/>
-      <c r="CT3" s="0"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60"/>
+      <c r="BM3" s="60"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -3947,9 +4173,11 @@
       <c r="E4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="CR4" s="0"/>
-      <c r="CS4" s="0"/>
-      <c r="CT4" s="0"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="60"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -3963,9 +4191,11 @@
       <c r="E5" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="CR5" s="0"/>
-      <c r="CS5" s="0"/>
-      <c r="CT5" s="0"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="BK5" s="60"/>
+      <c r="BL5" s="60"/>
+      <c r="BM5" s="60"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -3979,9 +4209,11 @@
       <c r="E6" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="CR6" s="0"/>
-      <c r="CS6" s="0"/>
-      <c r="CT6" s="0"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="BK6" s="60"/>
+      <c r="BL6" s="60"/>
+      <c r="BM6" s="60"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -3995,9 +4227,11 @@
       <c r="E7" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="CR7" s="0"/>
-      <c r="CS7" s="0"/>
-      <c r="CT7" s="0"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="BK7" s="60"/>
+      <c r="BL7" s="60"/>
+      <c r="BM7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -4013,9 +4247,11 @@
       <c r="E8" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="CR8" s="0"/>
-      <c r="CS8" s="0"/>
-      <c r="CT8" s="0"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="BK8" s="60"/>
+      <c r="BL8" s="60"/>
+      <c r="BM8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -4029,9 +4265,11 @@
       <c r="E9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="CR9" s="0"/>
-      <c r="CS9" s="0"/>
-      <c r="CT9" s="0"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="60"/>
+      <c r="BM9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -4045,9 +4283,11 @@
       <c r="E10" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="CR10" s="0"/>
-      <c r="CS10" s="0"/>
-      <c r="CT10" s="0"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="BK10" s="60"/>
+      <c r="BL10" s="60"/>
+      <c r="BM10" s="60"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -4061,9 +4301,11 @@
       <c r="E11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="CR11" s="0"/>
-      <c r="CS11" s="0"/>
-      <c r="CT11" s="0"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="BK11" s="60"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
@@ -4075,17 +4317,57 @@
       <c r="E12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="CR12" s="0"/>
-      <c r="CS12" s="0"/>
-      <c r="CT12" s="0"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="BK12" s="60"/>
+      <c r="BL12" s="60"/>
+      <c r="BM12" s="60"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
+      <c r="A14" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+      <c r="C14" s="18" t="n">
+        <f aca="false">A14+A16</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="16" t="n">
+        <f aca="false">C14</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18" t="n">
+        <f aca="false">F14+F16</f>
+        <v>13</v>
+      </c>
+      <c r="K14" s="16" t="n">
+        <f aca="false">H14</f>
+        <v>13</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18" t="n">
+        <f aca="false">K14+K16</f>
+        <v>24</v>
+      </c>
+      <c r="P14" s="16" t="n">
+        <f aca="false">M14</f>
+        <v>24</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18" t="n">
+        <f aca="false">P14+P16</f>
+        <v>34</v>
+      </c>
+      <c r="Z14" s="16" t="n">
+        <f aca="false">MAX(W14,W20)</f>
+        <v>49</v>
+      </c>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="18" t="n">
+        <f aca="false">Z14+Z16</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
@@ -4093,77 +4375,440 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
         <f aca="false">VLOOKUP(A15,$A$2:$E$12,5)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="23" t="n">
+        <f aca="false">C17-C14</f>
+        <v>0</v>
+      </c>
       <c r="C16" s="37"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
+      <c r="F16" s="22" t="n">
+        <f aca="false">VLOOKUP(F15,$A$2:$E$12,5)</f>
+        <v>9</v>
+      </c>
+      <c r="G16" s="23" t="n">
+        <f aca="false">H17-H14</f>
+        <v>15</v>
+      </c>
+      <c r="H16" s="37" t="n">
+        <f aca="false">K14-H14</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="22" t="n">
+        <f aca="false">VLOOKUP(K15,$A$2:$E$12,5)</f>
+        <v>11</v>
+      </c>
+      <c r="L16" s="23" t="n">
+        <f aca="false">M17-M14</f>
+        <v>15</v>
+      </c>
+      <c r="M16" s="37" t="n">
+        <f aca="false">P14-M14</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="22" t="n">
+        <f aca="false">VLOOKUP(P15,$A$2:$E$12,5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q16" s="23" t="n">
+        <f aca="false">R17-R14</f>
+        <v>15</v>
+      </c>
+      <c r="R16" s="37" t="n">
+        <f aca="false">Z14-R14</f>
+        <v>15</v>
+      </c>
+      <c r="Z16" s="22" t="n">
+        <f aca="false">VLOOKUP(Z15,$A$2:$E$12,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AA16" s="23" t="n">
+        <f aca="false">AB17-AB14</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28"/>
+      <c r="A17" s="28" t="n">
+        <f aca="false">C17-A16</f>
+        <v>0</v>
+      </c>
       <c r="B17" s="17"/>
-      <c r="C17" s="29"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
+      <c r="C17" s="29" t="n">
+        <f aca="false">MIN(F17,F23,F29)</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="F17" s="28" t="n">
+        <f aca="false">H17-F16</f>
+        <v>19</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="29" t="n">
+        <f aca="false">K17</f>
+        <v>28</v>
+      </c>
+      <c r="K17" s="28" t="n">
+        <f aca="false">M17-K16</f>
+        <v>28</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="29" t="n">
+        <f aca="false">P17</f>
+        <v>39</v>
+      </c>
+      <c r="P17" s="28" t="n">
+        <f aca="false">R17-P16</f>
+        <v>39</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="29" t="n">
+        <f aca="false">Z17</f>
+        <v>49</v>
+      </c>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="28" t="n">
+        <f aca="false">AB17-Z16</f>
+        <v>49</v>
+      </c>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="29" t="n">
+        <f aca="false">AB14</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
+      <c r="D18" s="53"/>
+      <c r="X18" s="54"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
+      <c r="D19" s="53"/>
+      <c r="X19" s="54"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
+      <c r="D20" s="53"/>
+      <c r="F20" s="16" t="n">
+        <f aca="false">$C$14</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18" t="n">
+        <f aca="false">F20+F22</f>
+        <v>11</v>
+      </c>
+      <c r="K20" s="16" t="n">
+        <f aca="false">H20</f>
+        <v>11</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18" t="n">
+        <f aca="false">K20+K22</f>
+        <v>26</v>
+      </c>
+      <c r="P20" s="16" t="n">
+        <f aca="false">MAX(M20,M26)</f>
+        <v>32</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18" t="n">
+        <f aca="false">P20+P22</f>
+        <v>39</v>
+      </c>
+      <c r="U20" s="16" t="n">
+        <f aca="false">R20</f>
+        <v>39</v>
+      </c>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18" t="n">
+        <f aca="false">U20+U22</f>
+        <v>49</v>
+      </c>
+      <c r="X20" s="54"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="55"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
+      <c r="D22" s="56"/>
+      <c r="F22" s="22" t="n">
+        <f aca="false">VLOOKUP(F21,$A$2:$E$12,5)</f>
+        <v>7</v>
+      </c>
+      <c r="G22" s="23" t="n">
+        <f aca="false">H23-H20</f>
+        <v>6</v>
+      </c>
+      <c r="H22" s="37" t="n">
+        <f aca="false">K20-H20</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="22" t="n">
+        <f aca="false">VLOOKUP(K21,$A$2:$E$12,5)</f>
+        <v>15</v>
+      </c>
+      <c r="L22" s="23" t="n">
+        <f aca="false">M23-M20</f>
+        <v>6</v>
+      </c>
+      <c r="M22" s="37" t="n">
+        <f aca="false">P20-M20</f>
+        <v>6</v>
+      </c>
+      <c r="P22" s="22" t="n">
+        <f aca="false">VLOOKUP(P21,$A$2:$E$12,5)</f>
+        <v>7</v>
+      </c>
+      <c r="Q22" s="23" t="n">
+        <f aca="false">R23-R20</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="37" t="n">
+        <f aca="false">U20-R20</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="22" t="n">
+        <f aca="false">VLOOKUP(U21,$A$2:$E$12,5)</f>
+        <v>10</v>
+      </c>
+      <c r="V22" s="23" t="n">
+        <f aca="false">W23-W20</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="37" t="n">
+        <f aca="false">Z14-W20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
+      <c r="D23" s="56"/>
+      <c r="F23" s="28" t="n">
+        <f aca="false">H23-F22</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="29" t="n">
+        <f aca="false">K23</f>
+        <v>17</v>
+      </c>
+      <c r="K23" s="28" t="n">
+        <f aca="false">M23-K22</f>
+        <v>17</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="29" t="n">
+        <f aca="false">P23</f>
+        <v>32</v>
+      </c>
+      <c r="N23" s="54"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="28" t="n">
+        <f aca="false">R23-P22</f>
+        <v>32</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="29" t="n">
+        <f aca="false">U23</f>
+        <v>39</v>
+      </c>
+      <c r="U23" s="28" t="n">
+        <f aca="false">W23-U22</f>
+        <v>39</v>
+      </c>
+      <c r="V23" s="17"/>
+      <c r="W23" s="29" t="n">
+        <f aca="false">Z17</f>
+        <v>49</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
+      <c r="D24" s="56"/>
+      <c r="N24" s="54"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
+      <c r="D25" s="56"/>
+      <c r="N25" s="54"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
+      <c r="D26" s="56"/>
+      <c r="F26" s="16" t="n">
+        <f aca="false">$C$14</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18" t="n">
+        <f aca="false">F26+F28</f>
+        <v>19</v>
+      </c>
+      <c r="K26" s="16" t="n">
+        <f aca="false">H26</f>
+        <v>19</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18" t="n">
+        <f aca="false">K26+K28</f>
+        <v>32</v>
+      </c>
+      <c r="N26" s="54"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="55"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="22" t="n">
+        <f aca="false">VLOOKUP(F27,$A$2:$E$12,5)</f>
+        <v>15</v>
+      </c>
+      <c r="G28" s="23" t="n">
+        <f aca="false">H29-H26</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="37" t="n">
+        <f aca="false">K26-H26</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="22" t="n">
+        <f aca="false">VLOOKUP(K27,$A$2:$E$12,5)</f>
+        <v>13</v>
+      </c>
+      <c r="L28" s="23" t="n">
+        <f aca="false">M29-M26</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="37" t="n">
+        <f aca="false">P20-M26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="28" t="n">
+        <f aca="false">H29-F28</f>
+        <v>4</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="29" t="n">
+        <f aca="false">K29</f>
+        <v>19</v>
+      </c>
+      <c r="K29" s="28" t="n">
+        <f aca="false">M29-K28</f>
+        <v>19</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="29" t="n">
+        <f aca="false">P23</f>
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="K27:M27"/>
   </mergeCells>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="AA16 V22 Q22 Q16 L16 L22 L28 G28 G22 G16 B16">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:BT12">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:BT12">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+      <formula>IF(OR(WEEKDAY(L$1)=6,WEEKDAY(L$1)=7),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4189,11 +4834,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -4204,10 +4849,10 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="n">
+      <c r="A2" s="64" t="n">
         <v>45297</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -4219,10 +4864,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="n">
+      <c r="A3" s="64" t="n">
         <v>45359</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="63" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -4236,10 +4881,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="n">
+      <c r="A4" s="64" t="n">
         <v>45380</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="63" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -4253,10 +4898,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="n">
+      <c r="A5" s="64" t="n">
         <v>45383</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="63" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -4270,10 +4915,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="n">
+      <c r="A6" s="64" t="n">
         <v>45413</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="63" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -4285,10 +4930,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="n">
+      <c r="A7" s="64" t="n">
         <v>45421</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="63" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -4302,10 +4947,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="n">
+      <c r="A8" s="64" t="n">
         <v>45432</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="63" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -4319,10 +4964,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="n">
+      <c r="A9" s="64" t="n">
         <v>45442</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="63" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -4336,10 +4981,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="n">
+      <c r="A10" s="64" t="n">
         <v>45519</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="63" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -4353,10 +4998,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="n">
+      <c r="A11" s="64" t="n">
         <v>45555</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -4370,10 +5015,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="n">
+      <c r="A12" s="64" t="n">
         <v>45568</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="63" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -4387,10 +5032,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="n">
+      <c r="A13" s="64" t="n">
         <v>45596</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="63" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -4399,15 +5044,15 @@
       <c r="D13" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="63" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="n">
+      <c r="A14" s="65" t="n">
         <v>45597</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="63" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -4421,10 +5066,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="n">
+      <c r="A15" s="65" t="n">
         <v>45616</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="63" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -4436,10 +5081,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="61" t="n">
+      <c r="A16" s="65" t="n">
         <v>45651</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="63" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -4451,10 +5096,10 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="61" t="n">
+      <c r="A17" s="65" t="n">
         <v>45652</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="63" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="27" t="s">

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="94">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t xml:space="preserve">Freier Puffer (FAZ-Nachfolger – FEZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufwand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauer = Aufwand (PT) / (Anzahl Personen * Kapazität (%))</t>
   </si>
   <si>
     <t xml:space="preserve">Datum</t>
@@ -305,8 +317,8 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="0\ %"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -435,7 +447,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +536,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF55308D"/>
         <bgColor rgb="FF203864"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -704,7 +722,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -937,6 +955,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="75" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -945,27 +967,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="75" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1229,7 +1287,6 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1293,6 +1350,99 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>192960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>33480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="Form 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14194080" y="1614600"/>
+          <a:ext cx="110520" cy="173520"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>217440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>52200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>128880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Form 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23664240" y="2292480"/>
+          <a:ext cx="104400" cy="155880"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3895,15 +4045,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT29"/>
+  <dimension ref="A1:DD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="0" topLeftCell="G4" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="O25" activeCellId="0" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="9" style="1" width="3.83"/>
   </cols>
   <sheetData>
@@ -3919,206 +4074,314 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="58" t="n">
+      <c r="F1" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="59" t="n">
         <v>45593</v>
       </c>
-      <c r="G1" s="58" t="n">
+      <c r="J1" s="59" t="n">
         <v>45594</v>
       </c>
-      <c r="H1" s="58" t="n">
+      <c r="K1" s="59" t="n">
         <v>45595</v>
       </c>
-      <c r="I1" s="59" t="n">
+      <c r="L1" s="60" t="n">
         <v>45596</v>
       </c>
-      <c r="J1" s="59" t="n">
+      <c r="M1" s="60" t="n">
         <v>45597</v>
       </c>
-      <c r="K1" s="58" t="n">
+      <c r="N1" s="59" t="n">
         <v>45598</v>
       </c>
-      <c r="L1" s="58" t="n">
+      <c r="O1" s="59" t="n">
         <v>45599</v>
       </c>
-      <c r="M1" s="58" t="n">
+      <c r="P1" s="59" t="n">
         <v>45600</v>
       </c>
-      <c r="N1" s="58" t="n">
+      <c r="Q1" s="59" t="n">
         <v>45601</v>
       </c>
-      <c r="O1" s="58" t="n">
+      <c r="R1" s="59" t="n">
         <v>45602</v>
       </c>
-      <c r="P1" s="58" t="n">
+      <c r="S1" s="59" t="n">
         <v>45603</v>
       </c>
-      <c r="Q1" s="58" t="n">
+      <c r="T1" s="59" t="n">
         <v>45604</v>
       </c>
-      <c r="R1" s="58" t="n">
+      <c r="U1" s="59" t="n">
         <v>45605</v>
       </c>
-      <c r="S1" s="58" t="n">
+      <c r="V1" s="59" t="n">
         <v>45606</v>
       </c>
-      <c r="T1" s="58" t="n">
+      <c r="W1" s="59" t="n">
         <v>45607</v>
       </c>
-      <c r="U1" s="58" t="n">
+      <c r="X1" s="59" t="n">
         <v>45608</v>
       </c>
-      <c r="V1" s="58" t="n">
+      <c r="Y1" s="59" t="n">
         <v>45609</v>
       </c>
-      <c r="W1" s="58" t="n">
+      <c r="Z1" s="59" t="n">
         <v>45610</v>
       </c>
-      <c r="X1" s="58" t="n">
+      <c r="AA1" s="59" t="n">
         <v>45611</v>
       </c>
-      <c r="Y1" s="58" t="n">
+      <c r="AB1" s="59" t="n">
         <v>45612</v>
       </c>
-      <c r="Z1" s="58" t="n">
+      <c r="AC1" s="59" t="n">
         <v>45613</v>
       </c>
-      <c r="AA1" s="58" t="n">
+      <c r="AD1" s="59" t="n">
         <v>45614</v>
       </c>
-      <c r="AB1" s="58" t="n">
+      <c r="AE1" s="59" t="n">
         <v>45615</v>
       </c>
-      <c r="AC1" s="58" t="n">
+      <c r="AF1" s="59" t="n">
         <v>45616</v>
       </c>
-      <c r="AD1" s="58" t="n">
+      <c r="AG1" s="59" t="n">
         <v>45617</v>
       </c>
-      <c r="AE1" s="58" t="n">
+      <c r="AH1" s="59" t="n">
         <v>45618</v>
       </c>
-      <c r="AF1" s="58" t="n">
+      <c r="AI1" s="59" t="n">
         <v>45619</v>
       </c>
-      <c r="AG1" s="58" t="n">
+      <c r="AJ1" s="59" t="n">
         <v>45620</v>
       </c>
-      <c r="AH1" s="58" t="n">
+      <c r="AK1" s="59" t="n">
         <v>45621</v>
       </c>
-      <c r="AI1" s="58" t="n">
+      <c r="AL1" s="59" t="n">
         <v>45622</v>
       </c>
-      <c r="AJ1" s="58" t="n">
+      <c r="AM1" s="59" t="n">
         <v>45623</v>
       </c>
-      <c r="AK1" s="58" t="n">
+      <c r="AN1" s="59" t="n">
         <v>45624</v>
       </c>
-      <c r="AL1" s="58" t="n">
+      <c r="AO1" s="59" t="n">
         <v>45625</v>
       </c>
-      <c r="AM1" s="58" t="n">
+      <c r="AP1" s="59" t="n">
         <v>45626</v>
       </c>
-      <c r="AN1" s="58" t="n">
+      <c r="AQ1" s="59" t="n">
         <v>45627</v>
       </c>
-      <c r="AO1" s="58" t="n">
+      <c r="AR1" s="59" t="n">
         <v>45628</v>
       </c>
-      <c r="AP1" s="58" t="n">
+      <c r="AS1" s="59" t="n">
         <v>45629</v>
       </c>
-      <c r="AQ1" s="58" t="n">
+      <c r="AT1" s="59" t="n">
         <v>45630</v>
       </c>
-      <c r="AR1" s="58" t="n">
+      <c r="AU1" s="59" t="n">
         <v>45631</v>
       </c>
-      <c r="AS1" s="58" t="n">
+      <c r="AV1" s="59" t="n">
         <v>45632</v>
       </c>
-      <c r="AT1" s="58" t="n">
+      <c r="AW1" s="59" t="n">
         <v>45633</v>
       </c>
-      <c r="AU1" s="58" t="n">
+      <c r="AX1" s="59" t="n">
         <v>45634</v>
       </c>
-      <c r="AV1" s="58" t="n">
+      <c r="AY1" s="59" t="n">
         <v>45635</v>
       </c>
-      <c r="AW1" s="58" t="n">
+      <c r="AZ1" s="59" t="n">
         <v>45636</v>
       </c>
-      <c r="AX1" s="58" t="n">
+      <c r="BA1" s="59" t="n">
         <v>45637</v>
       </c>
-      <c r="AY1" s="58" t="n">
+      <c r="BB1" s="59" t="n">
         <v>45638</v>
       </c>
-      <c r="AZ1" s="58" t="n">
+      <c r="BC1" s="59" t="n">
         <v>45639</v>
       </c>
-      <c r="BA1" s="58" t="n">
+      <c r="BD1" s="59" t="n">
         <v>45640</v>
       </c>
-      <c r="BB1" s="58" t="n">
+      <c r="BE1" s="59" t="n">
         <v>45641</v>
       </c>
-      <c r="BC1" s="58" t="n">
+      <c r="BF1" s="59" t="n">
         <v>45642</v>
       </c>
-      <c r="BD1" s="58" t="n">
+      <c r="BG1" s="59" t="n">
         <v>45643</v>
       </c>
-      <c r="BE1" s="58" t="n">
+      <c r="BH1" s="59" t="n">
         <v>45644</v>
       </c>
-      <c r="BF1" s="58" t="n">
+      <c r="BI1" s="59" t="n">
         <v>45645</v>
       </c>
-      <c r="BG1" s="58" t="n">
+      <c r="BJ1" s="59" t="n">
         <v>45646</v>
       </c>
-      <c r="BH1" s="58" t="n">
+      <c r="BK1" s="59" t="n">
         <v>45647</v>
       </c>
-      <c r="BI1" s="58" t="n">
+      <c r="BL1" s="59" t="n">
         <v>45648</v>
       </c>
-      <c r="BJ1" s="58" t="n">
+      <c r="BM1" s="59" t="n">
         <v>45649</v>
       </c>
-      <c r="BK1" s="59" t="n">
+      <c r="BN1" s="60" t="n">
         <v>45650</v>
       </c>
-      <c r="BL1" s="59" t="n">
+      <c r="BO1" s="60" t="n">
         <v>45651</v>
       </c>
-      <c r="BM1" s="59" t="n">
+      <c r="BP1" s="60" t="n">
         <v>45652</v>
       </c>
-      <c r="BN1" s="58" t="n">
+      <c r="BQ1" s="59" t="n">
         <v>45653</v>
       </c>
-      <c r="BO1" s="58" t="n">
+      <c r="BR1" s="59" t="n">
         <v>45654</v>
       </c>
-      <c r="BP1" s="58" t="n">
+      <c r="BS1" s="59" t="n">
         <v>45655</v>
       </c>
-      <c r="BQ1" s="58" t="n">
+      <c r="BT1" s="59" t="n">
         <v>45656</v>
       </c>
-      <c r="BR1" s="58" t="n">
+      <c r="BU1" s="60" t="n">
         <v>45657</v>
       </c>
-      <c r="BS1" s="58" t="n">
+      <c r="BV1" s="60" t="n">
         <v>45658</v>
       </c>
-      <c r="BT1" s="58" t="n">
+      <c r="BW1" s="59" t="n">
         <v>45659</v>
+      </c>
+      <c r="BX1" s="59" t="n">
+        <v>45660</v>
+      </c>
+      <c r="BY1" s="59" t="n">
+        <v>45661</v>
+      </c>
+      <c r="BZ1" s="59" t="n">
+        <v>45662</v>
+      </c>
+      <c r="CA1" s="59" t="n">
+        <v>45663</v>
+      </c>
+      <c r="CB1" s="59" t="n">
+        <v>45664</v>
+      </c>
+      <c r="CC1" s="59" t="n">
+        <v>45665</v>
+      </c>
+      <c r="CD1" s="59" t="n">
+        <v>45666</v>
+      </c>
+      <c r="CE1" s="59" t="n">
+        <v>45667</v>
+      </c>
+      <c r="CF1" s="59" t="n">
+        <v>45668</v>
+      </c>
+      <c r="CG1" s="59" t="n">
+        <v>45669</v>
+      </c>
+      <c r="CH1" s="59" t="n">
+        <v>45670</v>
+      </c>
+      <c r="CI1" s="59" t="n">
+        <v>45671</v>
+      </c>
+      <c r="CJ1" s="59" t="n">
+        <v>45672</v>
+      </c>
+      <c r="CK1" s="59" t="n">
+        <v>45673</v>
+      </c>
+      <c r="CL1" s="59" t="n">
+        <v>45674</v>
+      </c>
+      <c r="CM1" s="59" t="n">
+        <v>45675</v>
+      </c>
+      <c r="CN1" s="59" t="n">
+        <v>45676</v>
+      </c>
+      <c r="CO1" s="59" t="n">
+        <v>45677</v>
+      </c>
+      <c r="CP1" s="59" t="n">
+        <v>45678</v>
+      </c>
+      <c r="CQ1" s="59" t="n">
+        <v>45679</v>
+      </c>
+      <c r="CR1" s="59" t="n">
+        <v>45680</v>
+      </c>
+      <c r="CS1" s="59" t="n">
+        <v>45681</v>
+      </c>
+      <c r="CT1" s="59" t="n">
+        <v>45682</v>
+      </c>
+      <c r="CU1" s="59" t="n">
+        <v>45683</v>
+      </c>
+      <c r="CV1" s="59" t="n">
+        <v>45684</v>
+      </c>
+      <c r="CW1" s="59" t="n">
+        <v>45685</v>
+      </c>
+      <c r="CX1" s="59" t="n">
+        <v>45686</v>
+      </c>
+      <c r="CY1" s="59" t="n">
+        <v>45687</v>
+      </c>
+      <c r="CZ1" s="59" t="n">
+        <v>45688</v>
+      </c>
+      <c r="DA1" s="59" t="n">
+        <v>45689</v>
+      </c>
+      <c r="DB1" s="59" t="n">
+        <v>45690</v>
+      </c>
+      <c r="DC1" s="59" t="n">
+        <v>45691</v>
+      </c>
+      <c r="DD1" s="59" t="n">
+        <v>45692</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,13 +4398,39 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="n">
+        <f aca="false">ROUNDUP(F2/(G2*H2),0)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
+      <c r="G2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="P2" s="62"/>
+      <c r="BN2" s="63"/>
+      <c r="BO2" s="63"/>
+      <c r="BP2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -4153,13 +4442,62 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3" t="n">
+        <f aca="false">ROUNDUP(F3/(G3*H3),0)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="61" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="Q3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BU3" s="63"/>
+      <c r="BV3" s="63"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -4171,13 +4509,56 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="n">
+        <f aca="false">ROUNDUP(F4/(G4*H4),0)</f>
         <v>7</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="60"/>
+      <c r="F4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="Q4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="63"/>
+      <c r="BO4" s="63"/>
+      <c r="BP4" s="63"/>
+      <c r="BU4" s="63"/>
+      <c r="BV4" s="63"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -4189,13 +4570,50 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3" t="n">
+        <f aca="false">ROUNDUP(F5/(G5*H5),0)</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="BK5" s="60"/>
-      <c r="BL5" s="60"/>
-      <c r="BM5" s="60"/>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="BN5" s="63"/>
+      <c r="BO5" s="63"/>
+      <c r="BP5" s="63"/>
+      <c r="BU5" s="63"/>
+      <c r="BV5" s="63"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -4207,13 +4625,80 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3" t="n">
+        <f aca="false">ROUNDUP(F6/(G6*H6),0)</f>
         <v>15</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="BK6" s="60"/>
-      <c r="BL6" s="60"/>
-      <c r="BM6" s="60"/>
+      <c r="F6" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="Z6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="63"/>
+      <c r="BO6" s="63"/>
+      <c r="BP6" s="63"/>
+      <c r="BU6" s="63"/>
+      <c r="BV6" s="63"/>
+      <c r="CU6" s="1"/>
+      <c r="CV6" s="1"/>
+      <c r="CW6" s="1"/>
+      <c r="CX6" s="1"/>
+      <c r="CY6" s="1"/>
+      <c r="CZ6" s="1"/>
+      <c r="DA6" s="1"/>
+      <c r="DB6" s="1"/>
+      <c r="DC6" s="1"/>
+      <c r="DD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -4225,13 +4710,49 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3" t="n">
+        <f aca="false">ROUNDUP(F7/(G7*H7),0)</f>
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="BK7" s="60"/>
-      <c r="BL7" s="60"/>
-      <c r="BM7" s="60"/>
+      <c r="G7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="61" t="n">
+        <f aca="false">125%/2</f>
+        <v>0.625</v>
+      </c>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="62"/>
+      <c r="BA7" s="62"/>
+      <c r="BB7" s="62"/>
+      <c r="BN7" s="63"/>
+      <c r="BO7" s="63"/>
+      <c r="BP7" s="63"/>
+      <c r="BU7" s="63"/>
+      <c r="BV7" s="63"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="1"/>
+      <c r="DB7" s="1"/>
+      <c r="DC7" s="1"/>
+      <c r="DD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -4245,13 +4766,68 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="3" t="n">
+        <f aca="false">ROUNDUP(F8/(G8*H8),0)</f>
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="BK8" s="60"/>
-      <c r="BL8" s="60"/>
-      <c r="BM8" s="60"/>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="61" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="AD8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="63"/>
+      <c r="BO8" s="63"/>
+      <c r="BP8" s="63"/>
+      <c r="BU8" s="63"/>
+      <c r="BV8" s="63"/>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
+      <c r="CW8" s="1"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="1"/>
+      <c r="DA8" s="1"/>
+      <c r="DB8" s="1"/>
+      <c r="DC8" s="1"/>
+      <c r="DD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -4263,13 +4839,43 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3" t="n">
+        <f aca="false">ROUNDUP(F9/(G9*H9),0)</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="BK9" s="60"/>
-      <c r="BL9" s="60"/>
-      <c r="BM9" s="60"/>
+      <c r="G9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="BC9" s="64"/>
+      <c r="BF9" s="62"/>
+      <c r="BG9" s="62"/>
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="62"/>
+      <c r="BJ9" s="62"/>
+      <c r="BM9" s="62"/>
+      <c r="BN9" s="63"/>
+      <c r="BO9" s="63"/>
+      <c r="BP9" s="63"/>
+      <c r="BQ9" s="62"/>
+      <c r="BU9" s="63"/>
+      <c r="BV9" s="63"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1"/>
+      <c r="CZ9" s="1"/>
+      <c r="DA9" s="1"/>
+      <c r="DB9" s="1"/>
+      <c r="DC9" s="1"/>
+      <c r="DD9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -4281,13 +4887,65 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3" t="n">
+        <f aca="false">ROUNDUP(F10/(G10*H10),0)</f>
         <v>10</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="BK10" s="60"/>
-      <c r="BL10" s="60"/>
-      <c r="BM10" s="60"/>
+      <c r="F10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="AS10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="63"/>
+      <c r="BO10" s="63"/>
+      <c r="BP10" s="63"/>
+      <c r="BU10" s="63"/>
+      <c r="BV10" s="63"/>
+      <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
+      <c r="CW10" s="1"/>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1"/>
+      <c r="CZ10" s="1"/>
+      <c r="DA10" s="1"/>
+      <c r="DB10" s="1"/>
+      <c r="DC10" s="1"/>
+      <c r="DD10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -4299,13 +4957,46 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3" t="n">
+        <f aca="false">ROUNDUP(F11/(G11*H11),0)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
+      <c r="G11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="BN11" s="63"/>
+      <c r="BO11" s="63"/>
+      <c r="BP11" s="63"/>
+      <c r="BQ11" s="64"/>
+      <c r="BT11" s="62"/>
+      <c r="BU11" s="63"/>
+      <c r="BV11" s="63"/>
+      <c r="BW11" s="62"/>
+      <c r="BX11" s="62"/>
+      <c r="CA11" s="62"/>
+      <c r="CB11" s="62"/>
+      <c r="CC11" s="62"/>
+      <c r="CD11" s="62"/>
+      <c r="CE11" s="62"/>
+      <c r="CH11" s="62"/>
+      <c r="CI11" s="62"/>
+      <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1"/>
+      <c r="DC11" s="1"/>
+      <c r="DD11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
@@ -4315,58 +5006,91 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="3" t="n">
+        <f aca="false">ROUNDUP(F12/(G12*H12),0)</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="BK12" s="60"/>
-      <c r="BL12" s="60"/>
-      <c r="BM12" s="60"/>
+      <c r="G12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="BN12" s="63"/>
+      <c r="BO12" s="63"/>
+      <c r="BP12" s="63"/>
+      <c r="BU12" s="63"/>
+      <c r="BV12" s="63"/>
+      <c r="CI12" s="64"/>
+      <c r="CJ12" s="64"/>
+      <c r="CK12" s="64"/>
+      <c r="CL12" s="64"/>
+      <c r="CO12" s="62"/>
+      <c r="CP12" s="62"/>
+      <c r="CQ12" s="62"/>
+      <c r="CR12" s="62"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
+      <c r="CW12" s="1"/>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
+      <c r="CZ12" s="1"/>
+      <c r="DA12" s="1"/>
+      <c r="DB12" s="1"/>
+      <c r="DC12" s="1"/>
+      <c r="DD12" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="n">
         <v>0</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="65" t="n">
         <f aca="false">A14+A16</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="16" t="n">
         <f aca="false">C14</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="65" t="n">
         <f aca="false">F14+F16</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" s="16" t="n">
         <f aca="false">H14</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L14" s="17"/>
-      <c r="M14" s="18" t="n">
+      <c r="M14" s="65" t="n">
         <f aca="false">K14+K16</f>
-        <v>24</v>
-      </c>
-      <c r="P14" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="16" t="n">
         <f aca="false">M14</f>
-        <v>24</v>
-      </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="18" t="n">
-        <f aca="false">P14+P16</f>
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="S14" s="17"/>
+      <c r="T14" s="18" t="n">
+        <f aca="false">R14+R16</f>
+        <v>39</v>
+      </c>
+      <c r="U14" s="0"/>
       <c r="Z14" s="16" t="n">
-        <f aca="false">MAX(W14,W20)</f>
-        <v>49</v>
+        <f aca="false">MAX(T14,W20)</f>
+        <v>39</v>
       </c>
       <c r="AA14" s="17"/>
-      <c r="AB14" s="18" t="n">
+      <c r="AB14" s="65" t="n">
         <f aca="false">Z14+Z16</f>
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,28 +5101,28 @@
       <c r="C15" s="19"/>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
-      <c r="P15" s="61" t="s">
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="49"/>
       <c r="W15" s="49"/>
       <c r="X15" s="49"/>
@@ -4412,20 +5136,20 @@
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
         <f aca="false">VLOOKUP(A15,$A$2:$E$12,5)</f>
-        <v>4</v>
-      </c>
-      <c r="B16" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="68" t="n">
         <f aca="false">C17-C14</f>
         <v>0</v>
       </c>
       <c r="C16" s="37"/>
       <c r="F16" s="22" t="n">
         <f aca="false">VLOOKUP(F15,$A$2:$E$12,5)</f>
-        <v>9</v>
-      </c>
-      <c r="G16" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" s="68" t="n">
         <f aca="false">H17-H14</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" s="37" t="n">
         <f aca="false">K14-H14</f>
@@ -4433,33 +5157,36 @@
       </c>
       <c r="K16" s="22" t="n">
         <f aca="false">VLOOKUP(K15,$A$2:$E$12,5)</f>
-        <v>11</v>
-      </c>
-      <c r="L16" s="23" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" s="68" t="n">
         <f aca="false">M17-M14</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M16" s="37" t="n">
-        <f aca="false">P14-M14</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="22" t="n">
-        <f aca="false">VLOOKUP(P15,$A$2:$E$12,5)</f>
+        <f aca="false">R14-M14</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="22" t="n">
+        <f aca="false">VLOOKUP(R15,$A$2:$E$12,5)</f>
         <v>10</v>
       </c>
-      <c r="Q16" s="23" t="n">
-        <f aca="false">R17-R14</f>
-        <v>15</v>
-      </c>
-      <c r="R16" s="37" t="n">
-        <f aca="false">Z14-R14</f>
-        <v>15</v>
-      </c>
+      <c r="S16" s="23" t="n">
+        <f aca="false">T17-T14</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="37" t="n">
+        <f aca="false">Z14-T14</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="0"/>
       <c r="Z16" s="22" t="n">
         <f aca="false">VLOOKUP(Z15,$A$2:$E$12,5)</f>
-        <v>4</v>
-      </c>
-      <c r="AA16" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="68" t="n">
         <f aca="false">AB17-AB14</f>
         <v>0</v>
       </c>
@@ -4468,53 +5195,56 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="n">
+      <c r="A17" s="69" t="n">
         <f aca="false">C17-A16</f>
         <v>0</v>
       </c>
       <c r="B17" s="17"/>
-      <c r="C17" s="29" t="n">
+      <c r="C17" s="70" t="n">
         <f aca="false">MIN(F17,F23,F29)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="50"/>
-      <c r="F17" s="28" t="n">
+      <c r="F17" s="69" t="n">
         <f aca="false">H17-F16</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="29" t="n">
+      <c r="H17" s="70" t="n">
         <f aca="false">K17</f>
-        <v>28</v>
-      </c>
-      <c r="K17" s="28" t="n">
+        <v>14</v>
+      </c>
+      <c r="K17" s="69" t="n">
         <f aca="false">M17-K16</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L17" s="17"/>
-      <c r="M17" s="29" t="n">
-        <f aca="false">P17</f>
+      <c r="M17" s="70" t="n">
+        <f aca="false">R17</f>
+        <v>29</v>
+      </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="28" t="n">
+        <f aca="false">T17-R16</f>
+        <v>29</v>
+      </c>
+      <c r="S17" s="17"/>
+      <c r="T17" s="29" t="n">
+        <f aca="false">Z17</f>
         <v>39</v>
       </c>
-      <c r="P17" s="28" t="n">
-        <f aca="false">R17-P16</f>
+      <c r="U17" s="0"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="69" t="n">
+        <f aca="false">AB17-Z16</f>
         <v>39</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="29" t="n">
-        <f aca="false">Z17</f>
-        <v>49</v>
-      </c>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="28" t="n">
-        <f aca="false">AB17-Z16</f>
-        <v>49</v>
-      </c>
       <c r="AA17" s="17"/>
-      <c r="AB17" s="29" t="n">
+      <c r="AB17" s="70" t="n">
         <f aca="false">AB14</f>
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,39 +5259,39 @@
       <c r="D20" s="53"/>
       <c r="F20" s="16" t="n">
         <f aca="false">$C$14</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="18" t="n">
+      <c r="H20" s="65" t="n">
         <f aca="false">F20+F22</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K20" s="16" t="n">
         <f aca="false">H20</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L20" s="17"/>
-      <c r="M20" s="18" t="n">
+      <c r="M20" s="65" t="n">
         <f aca="false">K20+K22</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P20" s="16" t="n">
         <f aca="false">MAX(M20,M26)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="17"/>
-      <c r="R20" s="18" t="n">
+      <c r="R20" s="65" t="n">
         <f aca="false">P20+P22</f>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="U20" s="16" t="n">
         <f aca="false">R20</f>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="V20" s="17"/>
-      <c r="W20" s="18" t="n">
+      <c r="W20" s="65" t="n">
         <f aca="false">U20+U22</f>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="X20" s="54"/>
     </row>
@@ -4575,18 +5305,18 @@
       <c r="H21" s="19"/>
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
-      <c r="K21" s="61" t="s">
+      <c r="K21" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
-      <c r="P21" s="61" t="s">
+      <c r="P21" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
       <c r="U21" s="19" t="s">
@@ -4602,7 +5332,7 @@
         <f aca="false">VLOOKUP(F21,$A$2:$E$12,5)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="23" t="n">
+      <c r="G22" s="68" t="n">
         <f aca="false">H23-H20</f>
         <v>6</v>
       </c>
@@ -4614,21 +5344,21 @@
         <f aca="false">VLOOKUP(K21,$A$2:$E$12,5)</f>
         <v>15</v>
       </c>
-      <c r="L22" s="23" t="n">
+      <c r="L22" s="68" t="n">
         <f aca="false">M23-M20</f>
         <v>6</v>
       </c>
       <c r="M22" s="37" t="n">
         <f aca="false">P20-M20</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P22" s="22" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$E$12,5)</f>
-        <v>7</v>
-      </c>
-      <c r="Q22" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="68" t="n">
         <f aca="false">R23-R20</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R22" s="37" t="n">
         <f aca="false">U20-R20</f>
@@ -4636,56 +5366,56 @@
       </c>
       <c r="U22" s="22" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$E$12,5)</f>
-        <v>10</v>
-      </c>
-      <c r="V22" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" s="68" t="n">
         <f aca="false">W23-W20</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W22" s="37" t="n">
         <f aca="false">Z14-W20</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="56"/>
-      <c r="F23" s="28" t="n">
+      <c r="F23" s="69" t="n">
         <f aca="false">H23-F22</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="29" t="n">
+      <c r="H23" s="70" t="n">
         <f aca="false">K23</f>
-        <v>17</v>
-      </c>
-      <c r="K23" s="28" t="n">
+        <v>15</v>
+      </c>
+      <c r="K23" s="69" t="n">
         <f aca="false">M23-K22</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="29" t="n">
+      <c r="M23" s="70" t="n">
         <f aca="false">P23</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N23" s="54"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="28" t="n">
+      <c r="O23" s="71"/>
+      <c r="P23" s="69" t="n">
         <f aca="false">R23-P22</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="17"/>
-      <c r="R23" s="29" t="n">
+      <c r="R23" s="70" t="n">
         <f aca="false">U23</f>
+        <v>34</v>
+      </c>
+      <c r="U23" s="69" t="n">
+        <f aca="false">W23-U22</f>
+        <v>34</v>
+      </c>
+      <c r="V23" s="17"/>
+      <c r="W23" s="70" t="n">
+        <f aca="false">Z17</f>
         <v>39</v>
-      </c>
-      <c r="U23" s="28" t="n">
-        <f aca="false">W23-U22</f>
-        <v>39</v>
-      </c>
-      <c r="V23" s="17"/>
-      <c r="W23" s="29" t="n">
-        <f aca="false">Z17</f>
-        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4700,21 +5430,21 @@
       <c r="D26" s="56"/>
       <c r="F26" s="16" t="n">
         <f aca="false">$C$14</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="18" t="n">
+      <c r="H26" s="65" t="n">
         <f aca="false">F26+F28</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K26" s="16" t="n">
         <f aca="false">H26</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L26" s="17"/>
-      <c r="M26" s="18" t="n">
+      <c r="M26" s="65" t="n">
         <f aca="false">K26+K28</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N26" s="54"/>
     </row>
@@ -4734,15 +5464,30 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="55"/>
+      <c r="S27" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="22" t="n">
         <f aca="false">VLOOKUP(F27,$A$2:$E$12,5)</f>
-        <v>15</v>
-      </c>
-      <c r="G28" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G28" s="68" t="n">
         <f aca="false">H29-H26</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="37" t="n">
         <f aca="false">K26-H26</f>
@@ -4750,11 +5495,11 @@
       </c>
       <c r="K28" s="22" t="n">
         <f aca="false">VLOOKUP(K27,$A$2:$E$12,5)</f>
-        <v>13</v>
-      </c>
-      <c r="L28" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="L28" s="68" t="n">
         <f aca="false">M29-M26</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="37" t="n">
         <f aca="false">P20-M26</f>
@@ -4762,32 +5507,34 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="28" t="n">
+      <c r="F29" s="69" t="n">
         <f aca="false">H29-F28</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="29" t="n">
+      <c r="H29" s="70" t="n">
         <f aca="false">K29</f>
         <v>19</v>
       </c>
-      <c r="K29" s="28" t="n">
+      <c r="K29" s="69" t="n">
         <f aca="false">M29-K28</f>
         <v>19</v>
       </c>
       <c r="L29" s="17"/>
-      <c r="M29" s="29" t="n">
+      <c r="M29" s="70" t="n">
         <f aca="false">P23</f>
-        <v>32</v>
-      </c>
-    </row>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="R15:T15"/>
     <mergeCell ref="Z15:AB15"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="K21:M21"/>
@@ -4796,19 +5543,17 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="K27:M27"/>
   </mergeCells>
-  <conditionalFormatting sqref="AA16 V22 Q22 Q16 L16 L22 L28 G28 G22 G16 B16">
+  <conditionalFormatting sqref="AA16 V22 Q22 L16 L22 L28 G28 G22 G16 B16 R16">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:BT12">
+  <conditionalFormatting sqref="I1:DD12">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:BT12">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>IF(OR(WEEKDAY(L$1)=6,WEEKDAY(L$1)=7),1,0)</formula>
+      <formula>IF(OR(WEEKDAY(O$1)=6,WEEKDAY(O$1)=7),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4818,6 +5563,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4834,282 +5580,282 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>47</v>
+      <c r="A1" s="73" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="n">
+      <c r="A2" s="74" t="n">
         <v>45297</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>49</v>
+      <c r="B2" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="n">
+      <c r="A3" s="74" t="n">
         <v>45359</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>52</v>
+      <c r="B3" s="73" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="n">
+      <c r="A4" s="74" t="n">
         <v>45380</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>56</v>
+      <c r="B4" s="73" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E4" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="74" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>54</v>
-      </c>
       <c r="E5" s="27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="n">
+      <c r="A6" s="74" t="n">
         <v>45413</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>61</v>
+      <c r="B6" s="73" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="74" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="74" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="n">
-        <v>45421</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="E8" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="74" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="74" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="74" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64" t="n">
-        <v>45432</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="E11" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="74" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="74" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="75" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="n">
-        <v>45442</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="64" t="n">
-        <v>45519</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="64" t="n">
-        <v>45555</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="64" t="n">
-        <v>45568</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="64" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="65" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>54</v>
-      </c>
       <c r="E14" s="27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="65" t="n">
+      <c r="A15" s="75" t="n">
         <v>45616</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>84</v>
+      <c r="B15" s="73" t="s">
+        <v>88</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="65" t="n">
+      <c r="A16" s="75" t="n">
         <v>45651</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>87</v>
+      <c r="B16" s="73" t="s">
+        <v>91</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="65" t="n">
+      <c r="A17" s="75" t="n">
         <v>45652</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>89</v>
+      <c r="B17" s="73" t="s">
+        <v>93</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
@@ -1171,8 +1171,8 @@
   </sheetPr>
   <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U22" activeCellId="1" sqref="D24 U22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM15" activeCellId="0" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1579,21 +1579,41 @@
       <c r="C15" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="K15" s="16"/>
+      <c r="H15" s="18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K15" s="16" t="n">
+        <v>16</v>
+      </c>
       <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
-      <c r="P15" s="16"/>
+      <c r="M15" s="18" t="n">
+        <v>25</v>
+      </c>
+      <c r="P15" s="16" t="n">
+        <v>25</v>
+      </c>
       <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
-      <c r="U15" s="16"/>
+      <c r="R15" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="U15" s="16" t="n">
+        <v>30</v>
+      </c>
       <c r="V15" s="17"/>
-      <c r="W15" s="18"/>
-      <c r="Z15" s="16"/>
+      <c r="W15" s="18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z15" s="16" t="n">
+        <v>34</v>
+      </c>
       <c r="AA15" s="17"/>
-      <c r="AB15" s="18"/>
+      <c r="AB15" s="18" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
@@ -1642,62 +1662,113 @@
         <f aca="false">VLOOKUP(A16,$A$2:$E$13,5)</f>
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" s="25"/>
       <c r="F17" s="22" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$E$13,5)</f>
         <v>15</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" s="22" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$E$13,5)</f>
         <v>9</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
+      <c r="L17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="P17" s="22" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$E$13,5)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
+      <c r="Q17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="U17" s="22" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$E$13,5)</f>
         <v>4</v>
       </c>
-      <c r="V17" s="23"/>
-      <c r="W17" s="24"/>
+      <c r="V17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="Y17" s="26"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="24"/>
+      <c r="Z17" s="22" t="n">
+        <f aca="false">VLOOKUP(Z16,$A$2:$E$13,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AA17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="AD17" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
+      <c r="A18" s="27" t="n">
+        <v>0</v>
+      </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="28"/>
+      <c r="C18" s="28" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" s="29"/>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27" t="n">
+        <v>1</v>
+      </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="28"/>
-      <c r="K18" s="27"/>
+      <c r="H18" s="28" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" s="27" t="n">
+        <v>16</v>
+      </c>
       <c r="L18" s="17"/>
-      <c r="M18" s="28"/>
-      <c r="P18" s="27"/>
+      <c r="M18" s="28" t="n">
+        <v>25</v>
+      </c>
+      <c r="P18" s="27" t="n">
+        <v>25</v>
+      </c>
       <c r="Q18" s="17"/>
-      <c r="R18" s="28"/>
-      <c r="U18" s="27"/>
+      <c r="R18" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="U18" s="27" t="n">
+        <v>30</v>
+      </c>
       <c r="V18" s="17"/>
-      <c r="W18" s="28"/>
+      <c r="W18" s="28" t="n">
+        <v>34</v>
+      </c>
       <c r="X18" s="30"/>
-      <c r="Z18" s="27"/>
+      <c r="Z18" s="27" t="n">
+        <v>34</v>
+      </c>
       <c r="AA18" s="17"/>
-      <c r="AB18" s="28"/>
+      <c r="AB18" s="28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="30"/>
@@ -1705,18 +1776,34 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="30"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="K20" s="16"/>
+      <c r="H20" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="K20" s="16" t="n">
+        <v>13</v>
+      </c>
       <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
-      <c r="P20" s="16"/>
+      <c r="M20" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="P20" s="16" t="n">
+        <v>18</v>
+      </c>
       <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
-      <c r="U20" s="16"/>
+      <c r="R20" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="U20" s="16" t="n">
+        <v>26</v>
+      </c>
       <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
+      <c r="W20" s="18" t="n">
+        <v>28</v>
+      </c>
       <c r="X20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,44 +1842,76 @@
         <f aca="false">VLOOKUP(F21,$A$2:$E$13,5)</f>
         <v>12</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="I22" s="25"/>
       <c r="K22" s="22" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$E$13,5)</f>
         <v>5</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
+      <c r="L22" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="M22" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="P22" s="22" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$E$13,5)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="24"/>
+      <c r="Q22" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="R22" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="T22" s="21"/>
       <c r="U22" s="22" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$E$13,5)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="23"/>
-      <c r="W22" s="24"/>
+      <c r="V22" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="W22" s="24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="27"/>
+      <c r="F23" s="27" t="n">
+        <v>7</v>
+      </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="28" t="n">
+        <v>19</v>
+      </c>
       <c r="I23" s="29"/>
-      <c r="K23" s="27"/>
+      <c r="K23" s="27" t="n">
+        <v>21</v>
+      </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="28"/>
-      <c r="P23" s="27"/>
+      <c r="M23" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="P23" s="27" t="n">
+        <v>26</v>
+      </c>
       <c r="Q23" s="17"/>
-      <c r="R23" s="28"/>
+      <c r="R23" s="28" t="n">
+        <v>32</v>
+      </c>
       <c r="S23" s="30"/>
-      <c r="U23" s="27"/>
+      <c r="U23" s="27" t="n">
+        <v>32</v>
+      </c>
       <c r="V23" s="17"/>
-      <c r="W23" s="28"/>
+      <c r="W23" s="28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I24" s="30"/>
@@ -1807,12 +1926,20 @@
         <v>26</v>
       </c>
       <c r="I25" s="30"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="16" t="n">
+        <v>13</v>
+      </c>
       <c r="L25" s="17"/>
-      <c r="M25" s="18"/>
-      <c r="P25" s="16"/>
+      <c r="M25" s="18" t="n">
+        <v>21</v>
+      </c>
+      <c r="P25" s="16" t="n">
+        <v>21</v>
+      </c>
       <c r="Q25" s="17"/>
-      <c r="R25" s="18"/>
+      <c r="R25" s="18" t="n">
+        <v>26</v>
+      </c>
       <c r="S25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,14 +1978,22 @@
         <f aca="false">VLOOKUP(K26,$A$2:$E$13,5)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
+      <c r="L27" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="M27" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="P27" s="22" t="n">
         <f aca="false">VLOOKUP(P26,$A$2:$E$13,5)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="24"/>
+      <c r="Q27" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" s="24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="s">
@@ -1868,12 +2003,20 @@
       <c r="C28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="27"/>
+      <c r="K28" s="27" t="n">
+        <v>19</v>
+      </c>
       <c r="L28" s="17"/>
-      <c r="M28" s="28"/>
-      <c r="P28" s="27"/>
+      <c r="M28" s="28" t="n">
+        <v>27</v>
+      </c>
+      <c r="P28" s="27" t="n">
+        <v>27</v>
+      </c>
       <c r="Q28" s="17"/>
-      <c r="R28" s="28"/>
+      <c r="R28" s="28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="33" t="s">
@@ -2343,7 +2486,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="1" sqref="D24 F1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2791,10 +2934,10 @@
   </sheetPr>
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="I4" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="topRight" activeCell="C18" activeCellId="1" sqref="D24 C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3494,10 +3637,10 @@
   </sheetPr>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topRight" activeCell="AD4" activeCellId="0" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\Übung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8808C141-511C-448D-BEC6-C452204D8080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C21C9DF-41AF-4A4F-A407-04A882933918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,7 +885,79 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2685,62 +2757,62 @@
     <mergeCell ref="P16:R16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17 B27">
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17 Q27">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3246,52 +3318,52 @@
     <mergeCell ref="A13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3309,8 +3381,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J18" sqref="J18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3453,18 +3524,41 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="20"/>
+      <c r="A12" s="20">
+        <v>0</v>
+      </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="22">
+        <f>A12+A14</f>
+        <v>15</v>
+      </c>
+      <c r="F12" s="20">
+        <f>C12</f>
+        <v>15</v>
+      </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="P12" s="20"/>
+      <c r="H12" s="22">
+        <f>F12+F14</f>
+        <v>21</v>
+      </c>
+      <c r="P12" s="20">
+        <f>H12</f>
+        <v>21</v>
+      </c>
       <c r="Q12" s="21"/>
-      <c r="R12" s="22"/>
-      <c r="U12" s="20"/>
+      <c r="R12" s="22">
+        <f>P12+P14</f>
+        <v>28</v>
+      </c>
+      <c r="U12" s="20">
+        <f>MAX(R12,R18)</f>
+        <v>59</v>
+      </c>
       <c r="V12" s="21"/>
-      <c r="W12" s="22"/>
+      <c r="W12" s="22">
+        <f>U12+U14</f>
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="5" t="s">
@@ -3504,45 +3598,90 @@
         <f>VLOOKUP(A13,$A$2:$E$10,5)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="26">
+        <f>C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="38">
+        <f>MIN(F12,F18,F24)-C12</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="F14" s="25">
         <f>VLOOKUP(F13,$A$2:$E$10,5)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="26">
+        <f>H15-H12</f>
+        <v>31</v>
+      </c>
+      <c r="H14" s="38">
+        <f>P12-H12</f>
+        <v>0</v>
+      </c>
       <c r="P14" s="25">
         <f>VLOOKUP(P13,$A$2:$E$10,5)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="38"/>
+      <c r="Q14" s="26">
+        <f>R15-R12</f>
+        <v>31</v>
+      </c>
+      <c r="R14" s="38">
+        <f>U12-R12</f>
+        <v>31</v>
+      </c>
       <c r="S14" s="47"/>
       <c r="T14" s="29"/>
       <c r="U14" s="25">
         <f>VLOOKUP(U13,$A$2:$E$10,5)</f>
         <v>4</v>
       </c>
-      <c r="V14" s="26"/>
+      <c r="V14" s="26">
+        <f>W15-W12</f>
+        <v>0</v>
+      </c>
       <c r="W14" s="38"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="30"/>
+      <c r="A15" s="30">
+        <f>C15-A14</f>
+        <v>0</v>
+      </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="31"/>
+      <c r="C15" s="31">
+        <f>MIN(F15,F21,F27)</f>
+        <v>15</v>
+      </c>
       <c r="D15" s="32"/>
-      <c r="F15" s="30"/>
+      <c r="F15" s="30">
+        <f>H15-F14</f>
+        <v>46</v>
+      </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="31"/>
-      <c r="P15" s="30"/>
+      <c r="H15" s="31">
+        <f>P15</f>
+        <v>52</v>
+      </c>
+      <c r="P15" s="30">
+        <f>R15-P14</f>
+        <v>52</v>
+      </c>
       <c r="Q15" s="21"/>
-      <c r="R15" s="31"/>
+      <c r="R15" s="31">
+        <f>U15</f>
+        <v>59</v>
+      </c>
       <c r="S15" s="33"/>
-      <c r="U15" s="30"/>
+      <c r="U15" s="30">
+        <f>W15-U14</f>
+        <v>59</v>
+      </c>
       <c r="V15" s="21"/>
-      <c r="W15" s="31"/>
+      <c r="W15" s="31">
+        <f>W12</f>
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="C16" s="55"/>
@@ -3557,15 +3696,33 @@
     <row r="18" spans="3:19">
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="20">
+        <f>$C$12</f>
+        <v>15</v>
+      </c>
       <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="K18" s="20"/>
+      <c r="H18" s="22">
+        <f>F18+F20</f>
+        <v>29</v>
+      </c>
+      <c r="K18" s="20">
+        <f>H18</f>
+        <v>29</v>
+      </c>
       <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="P18" s="20"/>
+      <c r="M18" s="22">
+        <f>K18+K20</f>
+        <v>44</v>
+      </c>
+      <c r="P18" s="20">
+        <f>M18</f>
+        <v>44</v>
+      </c>
       <c r="Q18" s="21"/>
-      <c r="R18" s="22"/>
+      <c r="R18" s="22">
+        <f>P18+P20</f>
+        <v>59</v>
+      </c>
       <c r="S18" s="33"/>
     </row>
     <row r="19" spans="3:19">
@@ -3599,35 +3756,71 @@
         <f>VLOOKUP(F19,$A$2:$E$10,5)</f>
         <v>14</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="26">
+        <f>H21-H18</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="38">
+        <f>K18-H18</f>
+        <v>0</v>
+      </c>
       <c r="I20" s="47"/>
       <c r="K20" s="25">
         <f>VLOOKUP(K19,$A$2:$E$10,5)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="38"/>
+      <c r="L20" s="26">
+        <f>M21-M18</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="38">
+        <f>P18-M18</f>
+        <v>0</v>
+      </c>
       <c r="O20" s="29"/>
       <c r="P20" s="25">
         <f>VLOOKUP(P19,$A$2:$E$10,5)</f>
         <v>15</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="38"/>
+      <c r="Q20" s="26">
+        <f>R21-R18</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="38">
+        <f>U12-R18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="3:19">
       <c r="C21" s="33"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="30">
+        <f>H21-F20</f>
+        <v>15</v>
+      </c>
       <c r="G21" s="21"/>
-      <c r="H21" s="31"/>
-      <c r="K21" s="30"/>
+      <c r="H21" s="31">
+        <f>K21</f>
+        <v>29</v>
+      </c>
+      <c r="K21" s="30">
+        <f>M21-K20</f>
+        <v>29</v>
+      </c>
       <c r="L21" s="21"/>
-      <c r="M21" s="31"/>
+      <c r="M21" s="31">
+        <f>P21</f>
+        <v>44</v>
+      </c>
       <c r="N21" s="33"/>
-      <c r="P21" s="30"/>
+      <c r="P21" s="30">
+        <f>R21-P20</f>
+        <v>44</v>
+      </c>
       <c r="Q21" s="21"/>
-      <c r="R21" s="31"/>
+      <c r="R21" s="31">
+        <f>U15</f>
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="3:19">
       <c r="C22" s="33"/>
@@ -3639,12 +3832,24 @@
     </row>
     <row r="24" spans="3:19">
       <c r="C24" s="33"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="20">
+        <f>$C$12</f>
+        <v>15</v>
+      </c>
       <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="K24" s="20"/>
+      <c r="H24" s="22">
+        <f>F24+F26</f>
+        <v>21</v>
+      </c>
+      <c r="K24" s="20">
+        <f>H24</f>
+        <v>21</v>
+      </c>
       <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
+      <c r="M24" s="22">
+        <f>K24+K26</f>
+        <v>35</v>
+      </c>
       <c r="N24" s="33"/>
     </row>
     <row r="25" spans="3:19">
@@ -3670,22 +3875,46 @@
         <f>VLOOKUP(F25,$A$2:$E$10,5)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="26">
+        <f>H27-H24</f>
+        <v>9</v>
+      </c>
+      <c r="H26" s="38">
+        <f>K24-H24</f>
+        <v>0</v>
+      </c>
       <c r="K26" s="25">
         <f>VLOOKUP(K25,$A$2:$E$10,5)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="38"/>
+      <c r="L26" s="26">
+        <f>M27-M24</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="38">
+        <f>P18-M24</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="3:19">
-      <c r="F27" s="30"/>
+      <c r="F27" s="30">
+        <f>H27-F26</f>
+        <v>24</v>
+      </c>
       <c r="G27" s="21"/>
-      <c r="H27" s="31"/>
-      <c r="K27" s="30"/>
+      <c r="H27" s="31">
+        <f>K27</f>
+        <v>30</v>
+      </c>
+      <c r="K27" s="30">
+        <f>M27-K26</f>
+        <v>30</v>
+      </c>
       <c r="L27" s="21"/>
-      <c r="M27" s="31"/>
+      <c r="M27" s="31">
+        <f>P21</f>
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3700,48 +3929,48 @@
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="U13:W13"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="V14">
     <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4218,57 +4447,57 @@
     <mergeCell ref="U15:W15"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\Übung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C21C9DF-41AF-4A4F-A407-04A882933918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A2F18-D0B0-4718-B082-1DEDA96592CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" r:id="rId1"/>
@@ -192,6 +192,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+  </numFmts>
   <fonts count="16">
     <font>
       <sz val="10"/>
@@ -304,7 +307,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +390,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -734,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,6 +908,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="75"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="75"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="75"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="75"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2827,153 +2871,769 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:DF27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AR10" sqref="AR10:AS10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="64" width="3.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:110" ht="43.5">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="F1" s="71">
+        <v>45628</v>
+      </c>
+      <c r="G1" s="71">
+        <v>45629</v>
+      </c>
+      <c r="H1" s="68">
+        <v>45630</v>
+      </c>
+      <c r="I1" s="68">
+        <v>45631</v>
+      </c>
+      <c r="J1" s="68">
+        <v>45632</v>
+      </c>
+      <c r="K1" s="69">
+        <v>45633</v>
+      </c>
+      <c r="L1" s="69">
+        <v>45634</v>
+      </c>
+      <c r="M1" s="68">
+        <v>45635</v>
+      </c>
+      <c r="N1" s="68">
+        <v>45636</v>
+      </c>
+      <c r="O1" s="68">
+        <v>45637</v>
+      </c>
+      <c r="P1" s="68">
+        <v>45638</v>
+      </c>
+      <c r="Q1" s="68">
+        <v>45639</v>
+      </c>
+      <c r="R1" s="69">
+        <v>45640</v>
+      </c>
+      <c r="S1" s="69">
+        <v>45641</v>
+      </c>
+      <c r="T1" s="68">
+        <v>45642</v>
+      </c>
+      <c r="U1" s="68">
+        <v>45643</v>
+      </c>
+      <c r="V1" s="68">
+        <v>45644</v>
+      </c>
+      <c r="W1" s="68">
+        <v>45645</v>
+      </c>
+      <c r="X1" s="68">
+        <v>45646</v>
+      </c>
+      <c r="Y1" s="69">
+        <v>45647</v>
+      </c>
+      <c r="Z1" s="69">
+        <v>45648</v>
+      </c>
+      <c r="AA1" s="68">
+        <v>45649</v>
+      </c>
+      <c r="AB1" s="68">
+        <v>45650</v>
+      </c>
+      <c r="AC1" s="73">
+        <v>45651</v>
+      </c>
+      <c r="AD1" s="73">
+        <v>45652</v>
+      </c>
+      <c r="AE1" s="68">
+        <v>45653</v>
+      </c>
+      <c r="AF1" s="69">
+        <v>45654</v>
+      </c>
+      <c r="AG1" s="69">
+        <v>45655</v>
+      </c>
+      <c r="AH1" s="68">
+        <v>45656</v>
+      </c>
+      <c r="AI1" s="68">
+        <v>45657</v>
+      </c>
+      <c r="AJ1" s="73">
+        <v>45658</v>
+      </c>
+      <c r="AK1" s="68">
+        <v>45659</v>
+      </c>
+      <c r="AL1" s="68">
+        <v>45660</v>
+      </c>
+      <c r="AM1" s="69">
+        <v>45661</v>
+      </c>
+      <c r="AN1" s="69">
+        <v>45662</v>
+      </c>
+      <c r="AO1" s="73">
+        <v>45663</v>
+      </c>
+      <c r="AP1" s="68">
+        <v>45664</v>
+      </c>
+      <c r="AQ1" s="68">
+        <v>45665</v>
+      </c>
+      <c r="AR1" s="68">
+        <v>45666</v>
+      </c>
+      <c r="AS1" s="68">
+        <v>45667</v>
+      </c>
+      <c r="AT1" s="68">
+        <v>45668</v>
+      </c>
+      <c r="AU1" s="69">
+        <v>45669</v>
+      </c>
+      <c r="AV1" s="69">
+        <v>45670</v>
+      </c>
+      <c r="AW1" s="68">
+        <v>45671</v>
+      </c>
+      <c r="AX1" s="68">
+        <v>45672</v>
+      </c>
+      <c r="AY1" s="68">
+        <v>45673</v>
+      </c>
+      <c r="AZ1" s="68">
+        <v>45674</v>
+      </c>
+      <c r="BA1" s="68">
+        <v>45675</v>
+      </c>
+      <c r="BB1" s="69">
+        <v>45676</v>
+      </c>
+      <c r="BC1" s="69">
+        <v>45677</v>
+      </c>
+      <c r="BD1" s="68">
+        <v>45678</v>
+      </c>
+      <c r="BE1" s="68">
+        <v>45679</v>
+      </c>
+      <c r="BF1" s="68">
+        <v>45680</v>
+      </c>
+      <c r="BG1" s="68">
+        <v>45681</v>
+      </c>
+      <c r="BH1" s="68">
+        <v>45682</v>
+      </c>
+      <c r="BI1" s="69">
+        <v>45683</v>
+      </c>
+      <c r="BJ1" s="69">
+        <v>45684</v>
+      </c>
+      <c r="BK1" s="68">
+        <v>45685</v>
+      </c>
+      <c r="BL1" s="68">
+        <v>45686</v>
+      </c>
+      <c r="BM1" s="68">
+        <v>45687</v>
+      </c>
+      <c r="BN1" s="68">
+        <v>45688</v>
+      </c>
+      <c r="BO1" s="68">
+        <v>45689</v>
+      </c>
+      <c r="BP1" s="69">
+        <v>45690</v>
+      </c>
+      <c r="BQ1" s="69">
+        <v>45691</v>
+      </c>
+      <c r="BR1" s="68">
+        <v>45692</v>
+      </c>
+      <c r="BS1" s="68">
+        <v>45693</v>
+      </c>
+      <c r="BT1" s="68">
+        <v>45694</v>
+      </c>
+      <c r="BU1" s="68">
+        <v>45695</v>
+      </c>
+      <c r="BV1" s="68">
+        <v>45696</v>
+      </c>
+      <c r="BW1" s="69">
+        <v>45697</v>
+      </c>
+      <c r="BX1" s="69">
+        <v>45698</v>
+      </c>
+      <c r="BY1" s="68">
+        <v>45699</v>
+      </c>
+      <c r="BZ1" s="68">
+        <v>45700</v>
+      </c>
+      <c r="CA1" s="68">
+        <v>45701</v>
+      </c>
+      <c r="CB1" s="68">
+        <v>45702</v>
+      </c>
+      <c r="CC1" s="68">
+        <v>45703</v>
+      </c>
+      <c r="CD1" s="69">
+        <v>45704</v>
+      </c>
+      <c r="CE1" s="69">
+        <v>45705</v>
+      </c>
+      <c r="CF1" s="68">
+        <v>45706</v>
+      </c>
+      <c r="CG1" s="68">
+        <v>45707</v>
+      </c>
+      <c r="CH1" s="69">
+        <v>45708</v>
+      </c>
+      <c r="CI1" s="69">
+        <v>45709</v>
+      </c>
+      <c r="CJ1" s="69">
+        <v>45710</v>
+      </c>
+      <c r="CK1" s="68">
+        <v>45711</v>
+      </c>
+      <c r="CL1" s="68">
+        <v>45712</v>
+      </c>
+      <c r="CM1" s="68">
+        <v>45713</v>
+      </c>
+      <c r="CN1" s="68">
+        <v>45714</v>
+      </c>
+      <c r="CO1" s="68">
+        <v>45715</v>
+      </c>
+      <c r="CP1" s="68">
+        <v>45716</v>
+      </c>
+      <c r="CQ1" s="68">
+        <v>45717</v>
+      </c>
+      <c r="CR1" s="68">
+        <v>45718</v>
+      </c>
+      <c r="CS1" s="68">
+        <v>45719</v>
+      </c>
+      <c r="CT1" s="68">
+        <v>45720</v>
+      </c>
+      <c r="CU1" s="68">
+        <v>45721</v>
+      </c>
+      <c r="CV1" s="68">
+        <v>45722</v>
+      </c>
+      <c r="CW1" s="68">
+        <v>45723</v>
+      </c>
+      <c r="CX1" s="68">
+        <v>45724</v>
+      </c>
+      <c r="CY1" s="68">
+        <v>45725</v>
+      </c>
+      <c r="CZ1" s="68">
+        <v>45726</v>
+      </c>
+      <c r="DA1" s="68">
+        <v>45727</v>
+      </c>
+      <c r="DB1" s="68">
+        <v>45728</v>
+      </c>
+      <c r="DC1" s="68">
+        <v>45729</v>
+      </c>
+      <c r="DD1" s="68">
+        <v>45730</v>
+      </c>
+      <c r="DE1" s="68">
+        <v>45731</v>
+      </c>
+      <c r="DF1" s="68">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:110" ht="17.25" customHeight="1">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8">
+      <c r="E2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="8" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="76"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AJ2" s="74"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="74"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="70"/>
+    </row>
+    <row r="3" spans="1:110">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AJ3" s="74"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="74"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="70"/>
+      <c r="BI3" s="70"/>
+      <c r="BJ3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="70"/>
+      <c r="CD3" s="70"/>
+      <c r="CE3" s="70"/>
+      <c r="CH3" s="70"/>
+      <c r="CI3" s="70"/>
+      <c r="CJ3" s="70"/>
+    </row>
+    <row r="4" spans="1:110">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AJ4" s="74"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="74"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+      <c r="BB4" s="70"/>
+      <c r="BC4" s="70"/>
+      <c r="BI4" s="70"/>
+      <c r="BJ4" s="70"/>
+      <c r="BP4" s="70"/>
+      <c r="BQ4" s="70"/>
+      <c r="BW4" s="70"/>
+      <c r="BX4" s="70"/>
+      <c r="CD4" s="70"/>
+      <c r="CE4" s="70"/>
+      <c r="CH4" s="70"/>
+      <c r="CI4" s="70"/>
+      <c r="CJ4" s="70"/>
+    </row>
+    <row r="5" spans="1:110">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="8" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AJ5" s="74"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="74"/>
+      <c r="AU5" s="70"/>
+      <c r="AV5" s="70"/>
+      <c r="BB5" s="70"/>
+      <c r="BC5" s="70"/>
+      <c r="BI5" s="70"/>
+      <c r="BJ5" s="70"/>
+      <c r="BP5" s="70"/>
+      <c r="BQ5" s="70"/>
+      <c r="BW5" s="70"/>
+      <c r="BX5" s="70"/>
+      <c r="CD5" s="70"/>
+      <c r="CE5" s="70"/>
+      <c r="CH5" s="70"/>
+      <c r="CI5" s="70"/>
+      <c r="CJ5" s="70"/>
+    </row>
+    <row r="6" spans="1:110">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="8" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70"/>
+      <c r="AJ6" s="74"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="74"/>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="70"/>
+      <c r="BB6" s="70"/>
+      <c r="BC6" s="70"/>
+      <c r="BI6" s="70"/>
+      <c r="BJ6" s="70"/>
+      <c r="BP6" s="70"/>
+      <c r="BQ6" s="70"/>
+      <c r="BW6" s="70"/>
+      <c r="BX6" s="70"/>
+      <c r="CD6" s="70"/>
+      <c r="CE6" s="70"/>
+      <c r="CH6" s="70"/>
+      <c r="CI6" s="70"/>
+      <c r="CJ6" s="70"/>
+    </row>
+    <row r="7" spans="1:110">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="8" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AJ7" s="74"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="74"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="70"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="70"/>
+      <c r="BI7" s="70"/>
+      <c r="BJ7" s="70"/>
+      <c r="BP7" s="70"/>
+      <c r="BQ7" s="70"/>
+      <c r="BW7" s="70"/>
+      <c r="BX7" s="70"/>
+      <c r="CD7" s="70"/>
+      <c r="CE7" s="70"/>
+      <c r="CH7" s="70"/>
+      <c r="CI7" s="70"/>
+      <c r="CJ7" s="70"/>
+    </row>
+    <row r="8" spans="1:110">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="8" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="74"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="74"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BI8" s="70"/>
+      <c r="BJ8" s="70"/>
+      <c r="BP8" s="70"/>
+      <c r="BQ8" s="70"/>
+      <c r="BW8" s="70"/>
+      <c r="BX8" s="70"/>
+      <c r="CD8" s="70"/>
+      <c r="CE8" s="70"/>
+      <c r="CH8" s="70"/>
+      <c r="CI8" s="70"/>
+      <c r="CJ8" s="70"/>
+    </row>
+    <row r="9" spans="1:110">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="8" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="70"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BI9" s="70"/>
+      <c r="BJ9" s="70"/>
+      <c r="BP9" s="70"/>
+      <c r="BQ9" s="70"/>
+      <c r="BW9" s="70"/>
+      <c r="BX9" s="70"/>
+      <c r="CD9" s="70"/>
+      <c r="CE9" s="70"/>
+      <c r="CH9" s="70"/>
+      <c r="CI9" s="70"/>
+      <c r="CJ9" s="70"/>
+    </row>
+    <row r="10" spans="1:110">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AJ10" s="74"/>
+      <c r="AM10" s="70"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="74"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="70"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="70"/>
+      <c r="BI10" s="70"/>
+      <c r="BJ10" s="70"/>
+      <c r="BP10" s="70"/>
+      <c r="BQ10" s="70"/>
+      <c r="BW10" s="70"/>
+      <c r="BX10" s="70"/>
+      <c r="CD10" s="70"/>
+      <c r="CE10" s="70"/>
+      <c r="CH10" s="70"/>
+      <c r="CI10" s="70"/>
+      <c r="CJ10" s="70"/>
+    </row>
+    <row r="12" spans="1:110">
       <c r="A12" s="20">
         <v>0</v>
       </c>
@@ -3010,7 +3670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:110">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -3045,7 +3705,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:110">
       <c r="A14" s="25">
         <f>VLOOKUP(A13,$A$2:$E$10,5)</f>
         <v>6</v>
@@ -3099,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:110">
       <c r="A15" s="30">
         <v>0</v>
       </c>
@@ -3138,7 +3798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:110">
       <c r="D16" s="61"/>
       <c r="S16" s="61"/>
     </row>
@@ -3305,7 +3965,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="K19:M19"/>
@@ -3314,7 +3974,6 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="P13:R13"/>
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="A13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
@@ -3380,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\Übung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A2F18-D0B0-4718-B082-1DEDA96592CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F147D-791E-4C11-A478-88A8DD16E5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Vorgänger</t>
+  </si>
+  <si>
+    <t>Meilenstein 1</t>
   </si>
 </sst>
 </file>
@@ -1468,6 +1471,71 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>184546</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Raute 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4E4F1D-3E75-B25E-25A0-F6AD72A0307B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10483453" y="1571625"/>
+          <a:ext cx="113109" cy="160735"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2871,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DF27"/>
+  <dimension ref="A1:DF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AR10" sqref="AR10:AS10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.7109375" defaultRowHeight="12.75"/>
@@ -3497,33 +3565,30 @@
       <c r="CJ7" s="70"/>
     </row>
     <row r="8" spans="1:110">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="72"/>
       <c r="G8" s="72"/>
       <c r="K8" s="70"/>
       <c r="L8" s="70"/>
       <c r="R8" s="70"/>
       <c r="S8" s="70"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
       <c r="Y8" s="70"/>
       <c r="Z8" s="70"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
       <c r="AC8" s="74"/>
       <c r="AD8" s="74"/>
-      <c r="AE8" s="76"/>
+      <c r="AE8" s="72"/>
       <c r="AF8" s="70"/>
       <c r="AG8" s="70"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
       <c r="AJ8" s="74"/>
       <c r="AM8" s="70"/>
       <c r="AN8" s="70"/>
@@ -3546,13 +3611,16 @@
     </row>
     <row r="9" spans="1:110">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
@@ -3564,18 +3632,16 @@
       <c r="Z9" s="70"/>
       <c r="AC9" s="74"/>
       <c r="AD9" s="74"/>
+      <c r="AE9" s="72"/>
       <c r="AF9" s="70"/>
       <c r="AG9" s="70"/>
       <c r="AH9" s="76"/>
       <c r="AI9" s="76"/>
       <c r="AJ9" s="74"/>
       <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
       <c r="AM9" s="70"/>
       <c r="AN9" s="70"/>
       <c r="AO9" s="74"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="76"/>
       <c r="AU9" s="70"/>
       <c r="AV9" s="70"/>
       <c r="BB9" s="70"/>
@@ -3594,10 +3660,13 @@
     </row>
     <row r="10" spans="1:110">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
@@ -3611,12 +3680,17 @@
       <c r="AD10" s="74"/>
       <c r="AF10" s="70"/>
       <c r="AG10" s="70"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="76"/>
       <c r="AJ10" s="74"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
       <c r="AM10" s="70"/>
       <c r="AN10" s="70"/>
       <c r="AO10" s="74"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
       <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
       <c r="AU10" s="70"/>
       <c r="AV10" s="70"/>
       <c r="BB10" s="70"/>
@@ -3633,174 +3707,212 @@
       <c r="CI10" s="70"/>
       <c r="CJ10" s="70"/>
     </row>
-    <row r="12" spans="1:110">
-      <c r="A12" s="20">
+    <row r="11" spans="1:110">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AJ11" s="74"/>
+      <c r="AM11" s="70"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="74"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BI11" s="70"/>
+      <c r="BJ11" s="70"/>
+      <c r="BP11" s="70"/>
+      <c r="BQ11" s="70"/>
+      <c r="BW11" s="70"/>
+      <c r="BX11" s="70"/>
+      <c r="CD11" s="70"/>
+      <c r="CE11" s="70"/>
+      <c r="CH11" s="70"/>
+      <c r="CI11" s="70"/>
+      <c r="CJ11" s="70"/>
+    </row>
+    <row r="13" spans="1:110">
+      <c r="A13" s="20">
         <v>0</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22">
         <v>6</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F13" s="20">
         <v>6</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22">
+      <c r="G13" s="21"/>
+      <c r="H13" s="22">
         <v>13</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K13" s="20">
         <v>13</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22">
+      <c r="L13" s="21"/>
+      <c r="M13" s="22">
         <v>17</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P13" s="20">
         <v>17</v>
       </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="22">
+      <c r="Q13" s="21"/>
+      <c r="R13" s="22">
         <v>20</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U13" s="20">
         <v>24</v>
       </c>
-      <c r="V12" s="21"/>
-      <c r="W12" s="22">
+      <c r="V13" s="21"/>
+      <c r="W13" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:110">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:110">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="5" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="5" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="5" t="s">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="5" t="s">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:110">
-      <c r="A14" s="25">
-        <f>VLOOKUP(A13,$A$2:$E$10,5)</f>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:110">
+      <c r="A15" s="25">
+        <f>VLOOKUP(A14,$A$2:$E$11,5)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B15" s="26">
         <v>0</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C15" s="38">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="F14" s="25">
-        <f>VLOOKUP(F13,$A$2:$E$10,5)</f>
+      <c r="D15" s="59"/>
+      <c r="F15" s="25">
+        <f>VLOOKUP(F14,$A$2:$E$11,5)</f>
         <v>7</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G15" s="26">
         <v>4</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H15" s="63">
         <v>0</v>
       </c>
-      <c r="K14" s="25">
-        <f>VLOOKUP(K13,$A$2:$E$10,5)</f>
+      <c r="K15" s="25">
+        <f>VLOOKUP(K14,$A$2:$E$11,5)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L15" s="26">
         <v>4</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M15" s="38">
         <v>0</v>
       </c>
-      <c r="P14" s="25">
-        <f>VLOOKUP(P13,$A$2:$E$10,5)</f>
+      <c r="P15" s="25">
+        <f>VLOOKUP(P14,$A$2:$E$11,5)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q15" s="26">
         <v>4</v>
       </c>
-      <c r="R14" s="38">
+      <c r="R15" s="38">
         <v>4</v>
       </c>
-      <c r="T14" s="67"/>
-      <c r="U14" s="25">
-        <f>VLOOKUP(U13,$A$2:$E$10,5)</f>
+      <c r="T15" s="67"/>
+      <c r="U15" s="25">
+        <f>VLOOKUP(U14,$A$2:$E$11,5)</f>
         <v>2</v>
       </c>
-      <c r="V14" s="26">
+      <c r="V15" s="26">
         <v>0</v>
       </c>
-      <c r="W14" s="38">
+      <c r="W15" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:110">
-      <c r="A15" s="30">
+    <row r="16" spans="1:110">
+      <c r="A16" s="30">
         <v>0</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="31">
+      <c r="B16" s="21"/>
+      <c r="C16" s="31">
         <v>6</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="F15" s="30">
+      <c r="D16" s="60"/>
+      <c r="F16" s="30">
         <v>10</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="31">
+      <c r="G16" s="21"/>
+      <c r="H16" s="31">
         <v>17</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K16" s="30">
         <v>17</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="31">
+      <c r="L16" s="21"/>
+      <c r="M16" s="31">
         <v>21</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P16" s="30">
         <v>21</v>
       </c>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="31">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="31">
         <v>24</v>
       </c>
-      <c r="S15" s="61"/>
-      <c r="U15" s="30">
+      <c r="S16" s="61"/>
+      <c r="U16" s="30">
         <v>24</v>
       </c>
-      <c r="V15" s="21"/>
-      <c r="W15" s="31">
+      <c r="V16" s="21"/>
+      <c r="W16" s="31">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:110">
-      <c r="D16" s="61"/>
-      <c r="S16" s="61"/>
     </row>
     <row r="17" spans="4:19">
       <c r="D17" s="61"/>
@@ -3808,115 +3920,115 @@
     </row>
     <row r="18" spans="4:19">
       <c r="D18" s="61"/>
-      <c r="F18" s="20">
-        <v>6</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22">
-        <v>13</v>
-      </c>
-      <c r="K18" s="20">
-        <v>13</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22">
-        <v>17</v>
-      </c>
-      <c r="P18" s="20">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="22">
-        <v>24</v>
-      </c>
       <c r="S18" s="61"/>
     </row>
     <row r="19" spans="4:19">
       <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="20">
+        <v>6</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22">
+        <v>13</v>
+      </c>
+      <c r="K19" s="20">
+        <v>13</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22">
+        <v>17</v>
+      </c>
+      <c r="P19" s="20">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="22">
+        <v>24</v>
+      </c>
+      <c r="S19" s="61"/>
+    </row>
+    <row r="20" spans="4:19">
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="5" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="5" t="s">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="66"/>
-    </row>
-    <row r="20" spans="4:19">
-      <c r="F20" s="25">
-        <f>VLOOKUP(F19,$A$2:$E$10,5)</f>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="66"/>
+    </row>
+    <row r="21" spans="4:19">
+      <c r="F21" s="25">
+        <f>VLOOKUP(F20,$A$2:$E$11,5)</f>
         <v>7</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G21" s="26">
         <v>0</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H21" s="38">
         <v>0</v>
       </c>
-      <c r="I20" s="59"/>
-      <c r="K20" s="25">
-        <f>VLOOKUP(K19,$A$2:$E$10,5)</f>
+      <c r="I21" s="59"/>
+      <c r="K21" s="25">
+        <f>VLOOKUP(K20,$A$2:$E$11,5)</f>
         <v>4</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L21" s="26">
         <v>1</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M21" s="38">
         <v>1</v>
       </c>
-      <c r="O20" s="67"/>
-      <c r="P20" s="25">
-        <f>VLOOKUP(P19,$A$2:$E$10,5)</f>
+      <c r="O21" s="67"/>
+      <c r="P21" s="25">
+        <f>VLOOKUP(P20,$A$2:$E$11,5)</f>
         <v>6</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q21" s="26">
         <v>0</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R21" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:19">
-      <c r="F21" s="30">
+    <row r="22" spans="4:19">
+      <c r="F22" s="30">
         <v>6</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="31">
+      <c r="G22" s="21"/>
+      <c r="H22" s="31">
         <v>13</v>
       </c>
-      <c r="I21" s="60"/>
-      <c r="K21" s="30">
+      <c r="I22" s="60"/>
+      <c r="K22" s="30">
         <v>14</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="31">
+      <c r="L22" s="21"/>
+      <c r="M22" s="31">
         <v>18</v>
       </c>
-      <c r="N21" s="61"/>
-      <c r="P21" s="30">
+      <c r="N22" s="61"/>
+      <c r="P22" s="30">
         <v>18</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="31">
+      <c r="Q22" s="21"/>
+      <c r="R22" s="31">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="4:19">
-      <c r="I22" s="61"/>
-      <c r="N22" s="61"/>
     </row>
     <row r="23" spans="4:19">
       <c r="I23" s="61"/>
@@ -3924,105 +4036,110 @@
     </row>
     <row r="24" spans="4:19">
       <c r="I24" s="61"/>
-      <c r="K24" s="20">
-        <v>13</v>
-      </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22">
-        <v>18</v>
-      </c>
       <c r="N24" s="61"/>
     </row>
     <row r="25" spans="4:19">
       <c r="I25" s="61"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="20">
+        <v>13</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22">
+        <v>18</v>
+      </c>
+      <c r="N25" s="61"/>
+    </row>
+    <row r="26" spans="4:19">
+      <c r="I26" s="61"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="66"/>
-    </row>
-    <row r="26" spans="4:19">
-      <c r="K26" s="25">
-        <f>VLOOKUP(K25,$A$2:$E$10,5)</f>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="66"/>
+    </row>
+    <row r="27" spans="4:19">
+      <c r="K27" s="25">
+        <f>VLOOKUP(K26,$A$2:$E$11,5)</f>
         <v>5</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L27" s="26">
         <v>0</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M27" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:19">
-      <c r="K27" s="30">
+    <row r="28" spans="4:19">
+      <c r="K28" s="30">
         <v>13</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="31">
+      <c r="L28" s="21"/>
+      <c r="M28" s="31">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A13:C13"/>
+  <mergeCells count="10">
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="B15">
     <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+  <conditionalFormatting sqref="L21">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+  <conditionalFormatting sqref="Q15">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="V15">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4032,15 +4149,16 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:CF27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -4048,7 +4166,7 @@
     <col min="1" max="105" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:84" ht="43.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4060,8 +4178,245 @@
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="F1" s="71">
+        <v>45628</v>
+      </c>
+      <c r="G1" s="71">
+        <v>45629</v>
+      </c>
+      <c r="H1" s="68">
+        <v>45630</v>
+      </c>
+      <c r="I1" s="68">
+        <v>45631</v>
+      </c>
+      <c r="J1" s="68">
+        <v>45632</v>
+      </c>
+      <c r="K1" s="69">
+        <v>45633</v>
+      </c>
+      <c r="L1" s="69">
+        <v>45634</v>
+      </c>
+      <c r="M1" s="68">
+        <v>45635</v>
+      </c>
+      <c r="N1" s="68">
+        <v>45636</v>
+      </c>
+      <c r="O1" s="68">
+        <v>45637</v>
+      </c>
+      <c r="P1" s="68">
+        <v>45638</v>
+      </c>
+      <c r="Q1" s="68">
+        <v>45639</v>
+      </c>
+      <c r="R1" s="69">
+        <v>45640</v>
+      </c>
+      <c r="S1" s="69">
+        <v>45641</v>
+      </c>
+      <c r="T1" s="68">
+        <v>45642</v>
+      </c>
+      <c r="U1" s="68">
+        <v>45643</v>
+      </c>
+      <c r="V1" s="68">
+        <v>45644</v>
+      </c>
+      <c r="W1" s="68">
+        <v>45645</v>
+      </c>
+      <c r="X1" s="68">
+        <v>45646</v>
+      </c>
+      <c r="Y1" s="69">
+        <v>45647</v>
+      </c>
+      <c r="Z1" s="69">
+        <v>45648</v>
+      </c>
+      <c r="AA1" s="68">
+        <v>45649</v>
+      </c>
+      <c r="AB1" s="68">
+        <v>45650</v>
+      </c>
+      <c r="AC1" s="73">
+        <v>45651</v>
+      </c>
+      <c r="AD1" s="73">
+        <v>45652</v>
+      </c>
+      <c r="AE1" s="68">
+        <v>45653</v>
+      </c>
+      <c r="AF1" s="69">
+        <v>45654</v>
+      </c>
+      <c r="AG1" s="69">
+        <v>45655</v>
+      </c>
+      <c r="AH1" s="68">
+        <v>45656</v>
+      </c>
+      <c r="AI1" s="68">
+        <v>45657</v>
+      </c>
+      <c r="AJ1" s="73">
+        <v>45658</v>
+      </c>
+      <c r="AK1" s="68">
+        <v>45659</v>
+      </c>
+      <c r="AL1" s="68">
+        <v>45660</v>
+      </c>
+      <c r="AM1" s="69">
+        <v>45661</v>
+      </c>
+      <c r="AN1" s="69">
+        <v>45662</v>
+      </c>
+      <c r="AO1" s="73">
+        <v>45663</v>
+      </c>
+      <c r="AP1" s="68">
+        <v>45664</v>
+      </c>
+      <c r="AQ1" s="68">
+        <v>45665</v>
+      </c>
+      <c r="AR1" s="68">
+        <v>45666</v>
+      </c>
+      <c r="AS1" s="68">
+        <v>45667</v>
+      </c>
+      <c r="AT1" s="68">
+        <v>45668</v>
+      </c>
+      <c r="AU1" s="69">
+        <v>45669</v>
+      </c>
+      <c r="AV1" s="69">
+        <v>45670</v>
+      </c>
+      <c r="AW1" s="68">
+        <v>45671</v>
+      </c>
+      <c r="AX1" s="68">
+        <v>45672</v>
+      </c>
+      <c r="AY1" s="68">
+        <v>45673</v>
+      </c>
+      <c r="AZ1" s="68">
+        <v>45674</v>
+      </c>
+      <c r="BA1" s="68">
+        <v>45675</v>
+      </c>
+      <c r="BB1" s="69">
+        <v>45676</v>
+      </c>
+      <c r="BC1" s="69">
+        <v>45677</v>
+      </c>
+      <c r="BD1" s="68">
+        <v>45678</v>
+      </c>
+      <c r="BE1" s="68">
+        <v>45679</v>
+      </c>
+      <c r="BF1" s="68">
+        <v>45680</v>
+      </c>
+      <c r="BG1" s="68">
+        <v>45681</v>
+      </c>
+      <c r="BH1" s="68">
+        <v>45682</v>
+      </c>
+      <c r="BI1" s="69">
+        <v>45683</v>
+      </c>
+      <c r="BJ1" s="69">
+        <v>45684</v>
+      </c>
+      <c r="BK1" s="68">
+        <v>45685</v>
+      </c>
+      <c r="BL1" s="68">
+        <v>45686</v>
+      </c>
+      <c r="BM1" s="68">
+        <v>45687</v>
+      </c>
+      <c r="BN1" s="68">
+        <v>45688</v>
+      </c>
+      <c r="BO1" s="68">
+        <v>45689</v>
+      </c>
+      <c r="BP1" s="69">
+        <v>45690</v>
+      </c>
+      <c r="BQ1" s="69">
+        <v>45691</v>
+      </c>
+      <c r="BR1" s="68">
+        <v>45692</v>
+      </c>
+      <c r="BS1" s="68">
+        <v>45693</v>
+      </c>
+      <c r="BT1" s="68">
+        <v>45694</v>
+      </c>
+      <c r="BU1" s="68">
+        <v>45695</v>
+      </c>
+      <c r="BV1" s="68">
+        <v>45696</v>
+      </c>
+      <c r="BW1" s="69">
+        <v>45697</v>
+      </c>
+      <c r="BX1" s="69">
+        <v>45698</v>
+      </c>
+      <c r="BY1" s="68">
+        <v>45699</v>
+      </c>
+      <c r="BZ1" s="68">
+        <v>45700</v>
+      </c>
+      <c r="CA1" s="68">
+        <v>45701</v>
+      </c>
+      <c r="CB1" s="68">
+        <v>45702</v>
+      </c>
+      <c r="CC1" s="68">
+        <v>45703</v>
+      </c>
+      <c r="CD1" s="69">
+        <v>45704</v>
+      </c>
+      <c r="CE1" s="69">
+        <v>45705</v>
+      </c>
+      <c r="CF1" s="68">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4426,20 @@
       <c r="E2" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+    </row>
+    <row r="3" spans="1:84">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -4084,8 +4451,20 @@
       <c r="E3" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="70"/>
+    </row>
+    <row r="4" spans="1:84">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -4097,8 +4476,20 @@
       <c r="E4" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+    </row>
+    <row r="5" spans="1:84">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -4110,8 +4501,20 @@
       <c r="E5" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AT5" s="70"/>
+      <c r="AU5" s="70"/>
+    </row>
+    <row r="6" spans="1:84">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -4123,8 +4526,20 @@
       <c r="E6" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="70"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="70"/>
+    </row>
+    <row r="7" spans="1:84">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -4136,8 +4551,20 @@
       <c r="E7" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+    </row>
+    <row r="8" spans="1:84">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -4151,8 +4578,20 @@
       <c r="E8" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+    </row>
+    <row r="9" spans="1:84">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -4166,8 +4605,20 @@
       <c r="E9" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="70"/>
+      <c r="AT9" s="70"/>
+      <c r="AU9" s="70"/>
+    </row>
+    <row r="10" spans="1:84">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -4181,8 +4632,20 @@
       <c r="E10" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AM10" s="70"/>
+      <c r="AN10" s="70"/>
+      <c r="AT10" s="70"/>
+      <c r="AU10" s="70"/>
+    </row>
+    <row r="12" spans="1:84">
       <c r="A12" s="20">
         <v>0</v>
       </c>
@@ -4219,7 +4682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:84">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -4252,7 +4715,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:84">
       <c r="A14" s="25">
         <f>VLOOKUP(A13,$A$2:$E$10,5)</f>
         <v>15</v>
@@ -4302,7 +4765,7 @@
       </c>
       <c r="W14" s="38"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:84">
       <c r="A15" s="30">
         <f>C15-A14</f>
         <v>0</v>
@@ -4342,7 +4805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:84">
       <c r="C16" s="55"/>
       <c r="D16" s="33"/>
       <c r="S16" s="33"/>
@@ -4589,47 +5052,47 @@
     <mergeCell ref="U13:W13"/>
   </mergeCells>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5106,57 +5569,57 @@
     <mergeCell ref="U15:W15"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\Übung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAF36EF-DDC1-47A5-850E-02FF10133C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283FC2BA-FFD2-47C7-9124-B484378514EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" r:id="rId1"/>
     <sheet name="Übung2" sheetId="2" r:id="rId2"/>
-    <sheet name="Übung 4" sheetId="3" r:id="rId3"/>
-    <sheet name="Übung3" sheetId="4" r:id="rId4"/>
+    <sheet name="Übung3" sheetId="4" r:id="rId3"/>
+    <sheet name="Übung 4" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -390,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -518,11 +518,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,11 +761,211 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2292,62 +2617,62 @@
     <mergeCell ref="P16:R16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17 B27">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17 Q27">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2364,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -2747,52 +3072,52 @@
     <mergeCell ref="P13:R13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2806,19 +3131,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="98" width="3.85546875" customWidth="1"/>
+    <col min="1" max="105" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:23">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2831,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:23">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2839,10 +3164,10 @@
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2852,10 +3177,10 @@
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2865,10 +3190,10 @@
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -2878,10 +3203,10 @@
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -2894,7 +3219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:23">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2904,10 +3229,10 @@
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2919,10 +3244,10 @@
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2934,82 +3259,420 @@
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="46"/>
       <c r="E10" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="19">
+        <v>0</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21">
+        <v>15</v>
+      </c>
+      <c r="F12" s="19">
+        <v>15</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21">
+        <v>21</v>
+      </c>
+      <c r="K12" s="19">
+        <v>21</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21">
+        <v>28</v>
+      </c>
+      <c r="U12" s="19">
+        <v>59</v>
+      </c>
+      <c r="V12" s="20"/>
+      <c r="W12" s="21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="24">
+        <f>VLOOKUP(A13,$A$2:$E$10,5)</f>
+        <v>15</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="F14" s="24">
+        <f>VLOOKUP(F13,$A$2:$E$10,5)</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="25">
+        <v>31</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0</v>
+      </c>
+      <c r="K14" s="24">
+        <f>VLOOKUP(K13,$A$2:$E$10,5)</f>
+        <v>7</v>
+      </c>
+      <c r="L14" s="25">
+        <v>31</v>
+      </c>
+      <c r="M14" s="35">
+        <v>31</v>
+      </c>
+      <c r="T14" s="56"/>
+      <c r="U14" s="24">
+        <f>VLOOKUP(U13,$A$2:$E$10,5)</f>
+        <v>4</v>
+      </c>
+      <c r="V14" s="25">
+        <v>0</v>
+      </c>
+      <c r="W14" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="29">
+        <v>0</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="30">
+        <v>15</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="F15" s="29">
+        <v>46</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="30">
+        <v>52</v>
+      </c>
+      <c r="K15" s="29">
+        <v>52</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="30">
+        <v>59</v>
+      </c>
+      <c r="S15" s="51"/>
+      <c r="U15" s="29">
+        <v>59</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="30">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="C16" s="53"/>
+      <c r="D16" s="51"/>
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="S17" s="51"/>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="F18" s="19">
+        <v>15</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21">
+        <v>29</v>
+      </c>
+      <c r="K18" s="19">
+        <v>29</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21">
+        <v>44</v>
+      </c>
+      <c r="P18" s="19">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21">
+        <v>59</v>
+      </c>
+      <c r="S18" s="51"/>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="55"/>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" s="51"/>
+      <c r="F20" s="24">
+        <f>VLOOKUP(F19,$A$2:$E$10,5)</f>
+        <v>14</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="K20" s="24">
+        <f>VLOOKUP(K19,$A$2:$E$10,5)</f>
+        <v>15</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0</v>
+      </c>
+      <c r="M20" s="35">
+        <v>0</v>
+      </c>
+      <c r="O20" s="56"/>
+      <c r="P20" s="24">
+        <f>VLOOKUP(P19,$A$2:$E$10,5)</f>
+        <v>15</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>0</v>
+      </c>
+      <c r="R20" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" s="51"/>
+      <c r="F21" s="29">
+        <v>15</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="30">
+        <v>29</v>
+      </c>
+      <c r="K21" s="29">
+        <v>29</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="30">
+        <v>44</v>
+      </c>
+      <c r="N21" s="51"/>
+      <c r="P21" s="29">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="C22" s="51"/>
+      <c r="N22" s="51"/>
+    </row>
+    <row r="23" spans="3:19">
+      <c r="C23" s="51"/>
+      <c r="N23" s="51"/>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="C24" s="51"/>
+      <c r="F24" s="19">
+        <v>15</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21">
         <v>21</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="24">
-        <f>VLOOKUP(A15,$A$2:$E$12,5)</f>
-        <v>4</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="35"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="30"/>
+      <c r="K24" s="19">
+        <v>21</v>
+      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21">
+        <v>35</v>
+      </c>
+      <c r="N24" s="51"/>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="C25" s="51"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="55"/>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="F26" s="24">
+        <f>VLOOKUP(F25,$A$2:$E$10,5)</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="25">
+        <v>9</v>
+      </c>
+      <c r="H26" s="35">
+        <v>0</v>
+      </c>
+      <c r="K26" s="24">
+        <f>VLOOKUP(K25,$A$2:$E$10,5)</f>
+        <v>14</v>
+      </c>
+      <c r="L26" s="25">
+        <v>9</v>
+      </c>
+      <c r="M26" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="F27" s="29">
+        <v>24</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="30">
+        <v>30</v>
+      </c>
+      <c r="K27" s="29">
+        <v>30</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="30">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="U13:W13"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F25:H25"/>
   </mergeCells>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3023,19 +3686,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="105" width="3.85546875" customWidth="1"/>
+    <col min="1" max="98" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:28">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:28">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -3056,10 +3719,10 @@
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -3069,10 +3732,10 @@
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -3082,10 +3745,10 @@
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -3095,10 +3758,10 @@
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -3111,7 +3774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:28">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -3121,10 +3784,10 @@
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -3136,10 +3799,10 @@
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -3151,56 +3814,520 @@
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>13</v>
-      </c>
+      <c r="C10" s="46"/>
       <c r="D10" s="46"/>
       <c r="E10" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:28">
+      <c r="A14" s="19">
+        <v>0</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21">
+        <v>4</v>
+      </c>
+      <c r="F14" s="19">
+        <v>4</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21">
+        <v>13</v>
+      </c>
+      <c r="K14" s="19">
+        <v>13</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21">
+        <v>24</v>
+      </c>
+      <c r="P14" s="19">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21">
+        <v>34</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>49</v>
+      </c>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="24">
-        <f>VLOOKUP(A13,$A$2:$E$10,5)</f>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="24">
+        <f>VLOOKUP(A15,$A$2:$E$12,5)</f>
+        <v>4</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="F16" s="24">
+        <f>VLOOKUP(F15,$A$2:$E$12,5)</f>
+        <v>9</v>
+      </c>
+      <c r="G16" s="25">
         <v>15</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="35"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="29"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="30"/>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
+        <f>VLOOKUP(K15,$A$2:$E$12,5)</f>
+        <v>11</v>
+      </c>
+      <c r="L16" s="25">
+        <v>15</v>
+      </c>
+      <c r="M16" s="35">
+        <v>0</v>
+      </c>
+      <c r="P16" s="24">
+        <f>VLOOKUP(P15,$A$2:$E$12,5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>15</v>
+      </c>
+      <c r="R16" s="35">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="24">
+        <f>VLOOKUP(Z15,$A$2:$E$12,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AA16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="29">
+        <v>0</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="30">
+        <v>4</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="F17" s="29">
+        <v>19</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="30">
+        <v>28</v>
+      </c>
+      <c r="K17" s="29">
+        <v>28</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="30">
+        <v>39</v>
+      </c>
+      <c r="P17" s="29">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="30">
+        <v>49</v>
+      </c>
+      <c r="X17" s="51"/>
+      <c r="Z17" s="29">
+        <v>49</v>
+      </c>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="C18" s="53"/>
+      <c r="D18" s="51"/>
+      <c r="X18" s="51"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="X19" s="51"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="F20" s="19">
+        <v>4</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21">
+        <v>11</v>
+      </c>
+      <c r="K20" s="19">
+        <v>11</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21">
+        <v>26</v>
+      </c>
+      <c r="P20" s="19">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="21">
+        <v>39</v>
+      </c>
+      <c r="U20" s="19">
+        <v>39</v>
+      </c>
+      <c r="V20" s="20"/>
+      <c r="W20" s="21">
+        <v>49</v>
+      </c>
+      <c r="X20" s="51"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="55"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="C22" s="51"/>
+      <c r="F22" s="24">
+        <f>VLOOKUP(F21,$A$2:$E$12,5)</f>
+        <v>7</v>
+      </c>
+      <c r="G22" s="25">
+        <v>6</v>
+      </c>
+      <c r="H22" s="35">
+        <v>0</v>
+      </c>
+      <c r="K22" s="24">
+        <f>VLOOKUP(K21,$A$2:$E$12,5)</f>
+        <v>15</v>
+      </c>
+      <c r="L22" s="25">
+        <v>6</v>
+      </c>
+      <c r="M22" s="35">
+        <v>6</v>
+      </c>
+      <c r="O22" s="56"/>
+      <c r="P22" s="24">
+        <f>VLOOKUP(P21,$A$2:$E$12,5)</f>
+        <v>7</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>0</v>
+      </c>
+      <c r="R22" s="35">
+        <v>0</v>
+      </c>
+      <c r="U22" s="24">
+        <f>VLOOKUP(U21,$A$2:$E$12,5)</f>
+        <v>10</v>
+      </c>
+      <c r="V22" s="25">
+        <v>0</v>
+      </c>
+      <c r="W22" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="C23" s="51"/>
+      <c r="F23" s="29">
+        <v>10</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="30">
+        <v>17</v>
+      </c>
+      <c r="K23" s="29">
+        <v>17</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="30">
+        <v>32</v>
+      </c>
+      <c r="N23" s="51"/>
+      <c r="P23" s="29">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="30">
+        <v>39</v>
+      </c>
+      <c r="U23" s="29">
+        <v>39</v>
+      </c>
+      <c r="V23" s="20"/>
+      <c r="W23" s="30">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="C24" s="51"/>
+      <c r="N24" s="51"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="C25" s="51"/>
+      <c r="N25" s="51"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="C26" s="51"/>
+      <c r="F26" s="19">
+        <v>4</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21">
+        <v>19</v>
+      </c>
+      <c r="K26" s="19">
+        <v>19</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21">
+        <v>32</v>
+      </c>
+      <c r="N26" s="51"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="C27" s="51"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="55"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="F28" s="24">
+        <f>VLOOKUP(F27,$A$2:$E$12,5)</f>
+        <v>15</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="35">
+        <v>0</v>
+      </c>
+      <c r="K28" s="24">
+        <f>VLOOKUP(K27,$A$2:$E$12,5)</f>
+        <v>13</v>
+      </c>
+      <c r="L28" s="25">
+        <v>0</v>
+      </c>
+      <c r="M28" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="F29" s="29">
+        <v>4</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="30">
+        <v>19</v>
+      </c>
+      <c r="K29" s="29">
+        <v>19</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="30">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P21:R21"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F27:H27"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Übung/Netzplan_Übung.xlsx
+++ b/Übung/Netzplan_Übung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\Übung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283FC2BA-FFD2-47C7-9124-B484378514EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9B642-2193-4F88-AE3E-E563A9BED12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +387,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -647,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,6 +790,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3687,10 +3720,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:EJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="CF12" sqref="CF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3698,7 +3731,7 @@
     <col min="1" max="98" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:140" ht="64.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3710,8 +3743,413 @@
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="F1" s="60">
+        <v>45628</v>
+      </c>
+      <c r="G1" s="60">
+        <v>45629</v>
+      </c>
+      <c r="H1" s="60">
+        <v>45630</v>
+      </c>
+      <c r="I1" s="60">
+        <v>45631</v>
+      </c>
+      <c r="J1" s="60">
+        <v>45632</v>
+      </c>
+      <c r="K1" s="61">
+        <v>45633</v>
+      </c>
+      <c r="L1" s="61">
+        <v>45634</v>
+      </c>
+      <c r="M1" s="60">
+        <v>45635</v>
+      </c>
+      <c r="N1" s="60">
+        <v>45636</v>
+      </c>
+      <c r="O1" s="60">
+        <v>45637</v>
+      </c>
+      <c r="P1" s="60">
+        <v>45638</v>
+      </c>
+      <c r="Q1" s="60">
+        <v>45639</v>
+      </c>
+      <c r="R1" s="61">
+        <v>45640</v>
+      </c>
+      <c r="S1" s="61">
+        <v>45641</v>
+      </c>
+      <c r="T1" s="60">
+        <v>45642</v>
+      </c>
+      <c r="U1" s="60">
+        <v>45643</v>
+      </c>
+      <c r="V1" s="60">
+        <v>45644</v>
+      </c>
+      <c r="W1" s="60">
+        <v>45645</v>
+      </c>
+      <c r="X1" s="60">
+        <v>45646</v>
+      </c>
+      <c r="Y1" s="61">
+        <v>45647</v>
+      </c>
+      <c r="Z1" s="61">
+        <v>45648</v>
+      </c>
+      <c r="AA1" s="60">
+        <v>45649</v>
+      </c>
+      <c r="AB1" s="60">
+        <v>45650</v>
+      </c>
+      <c r="AC1" s="62">
+        <v>45651</v>
+      </c>
+      <c r="AD1" s="62">
+        <v>45652</v>
+      </c>
+      <c r="AE1" s="60">
+        <v>45653</v>
+      </c>
+      <c r="AF1" s="61">
+        <v>45654</v>
+      </c>
+      <c r="AG1" s="61">
+        <v>45655</v>
+      </c>
+      <c r="AH1" s="60">
+        <v>45656</v>
+      </c>
+      <c r="AI1" s="60">
+        <v>45657</v>
+      </c>
+      <c r="AJ1" s="62">
+        <v>45658</v>
+      </c>
+      <c r="AK1" s="60">
+        <v>45659</v>
+      </c>
+      <c r="AL1" s="60">
+        <v>45660</v>
+      </c>
+      <c r="AM1" s="61">
+        <v>45661</v>
+      </c>
+      <c r="AN1" s="61">
+        <v>45662</v>
+      </c>
+      <c r="AO1" s="62">
+        <v>45663</v>
+      </c>
+      <c r="AP1" s="60">
+        <v>45664</v>
+      </c>
+      <c r="AQ1" s="60">
+        <v>45665</v>
+      </c>
+      <c r="AR1" s="60">
+        <v>45666</v>
+      </c>
+      <c r="AS1" s="60">
+        <v>45667</v>
+      </c>
+      <c r="AT1" s="61">
+        <v>45668</v>
+      </c>
+      <c r="AU1" s="61">
+        <v>45669</v>
+      </c>
+      <c r="AV1" s="60">
+        <v>45670</v>
+      </c>
+      <c r="AW1" s="60">
+        <v>45671</v>
+      </c>
+      <c r="AX1" s="60">
+        <v>45672</v>
+      </c>
+      <c r="AY1" s="60">
+        <v>45673</v>
+      </c>
+      <c r="AZ1" s="60">
+        <v>45674</v>
+      </c>
+      <c r="BA1" s="61">
+        <v>45675</v>
+      </c>
+      <c r="BB1" s="61">
+        <v>45676</v>
+      </c>
+      <c r="BC1" s="60">
+        <v>45677</v>
+      </c>
+      <c r="BD1" s="60">
+        <v>45678</v>
+      </c>
+      <c r="BE1" s="60">
+        <v>45679</v>
+      </c>
+      <c r="BF1" s="60">
+        <v>45680</v>
+      </c>
+      <c r="BG1" s="60">
+        <v>45681</v>
+      </c>
+      <c r="BH1" s="61">
+        <v>45682</v>
+      </c>
+      <c r="BI1" s="61">
+        <v>45683</v>
+      </c>
+      <c r="BJ1" s="60">
+        <v>45684</v>
+      </c>
+      <c r="BK1" s="60">
+        <v>45685</v>
+      </c>
+      <c r="BL1" s="60">
+        <v>45686</v>
+      </c>
+      <c r="BM1" s="60">
+        <v>45687</v>
+      </c>
+      <c r="BN1" s="60">
+        <v>45688</v>
+      </c>
+      <c r="BO1" s="61">
+        <v>45689</v>
+      </c>
+      <c r="BP1" s="61">
+        <v>45690</v>
+      </c>
+      <c r="BQ1" s="60">
+        <v>45691</v>
+      </c>
+      <c r="BR1" s="60">
+        <v>45692</v>
+      </c>
+      <c r="BS1" s="60">
+        <v>45693</v>
+      </c>
+      <c r="BT1" s="60">
+        <v>45694</v>
+      </c>
+      <c r="BU1" s="60">
+        <v>45695</v>
+      </c>
+      <c r="BV1" s="61">
+        <v>45696</v>
+      </c>
+      <c r="BW1" s="61">
+        <v>45697</v>
+      </c>
+      <c r="BX1" s="60">
+        <v>45698</v>
+      </c>
+      <c r="BY1" s="60">
+        <v>45699</v>
+      </c>
+      <c r="BZ1" s="60">
+        <v>45700</v>
+      </c>
+      <c r="CA1" s="60">
+        <v>45701</v>
+      </c>
+      <c r="CB1" s="60">
+        <v>45702</v>
+      </c>
+      <c r="CC1" s="61">
+        <v>45703</v>
+      </c>
+      <c r="CD1" s="61">
+        <v>45704</v>
+      </c>
+      <c r="CE1" s="60">
+        <v>45705</v>
+      </c>
+      <c r="CF1" s="60">
+        <v>45706</v>
+      </c>
+      <c r="CG1" s="60">
+        <v>45707</v>
+      </c>
+      <c r="CH1" s="60">
+        <v>45708</v>
+      </c>
+      <c r="CI1" s="60">
+        <v>45709</v>
+      </c>
+      <c r="CJ1" s="61">
+        <v>45710</v>
+      </c>
+      <c r="CK1" s="61">
+        <v>45711</v>
+      </c>
+      <c r="CL1" s="60">
+        <v>45712</v>
+      </c>
+      <c r="CM1" s="60">
+        <v>45713</v>
+      </c>
+      <c r="CN1" s="60">
+        <v>45714</v>
+      </c>
+      <c r="CO1" s="60">
+        <v>45715</v>
+      </c>
+      <c r="CP1" s="60">
+        <v>45716</v>
+      </c>
+      <c r="CQ1" s="61">
+        <v>45717</v>
+      </c>
+      <c r="CR1" s="61">
+        <v>45718</v>
+      </c>
+      <c r="CS1" s="58">
+        <v>45719</v>
+      </c>
+      <c r="CT1" s="58">
+        <v>45720</v>
+      </c>
+      <c r="CU1" s="58">
+        <v>45721</v>
+      </c>
+      <c r="CV1" s="58">
+        <v>45722</v>
+      </c>
+      <c r="CW1" s="58">
+        <v>45723</v>
+      </c>
+      <c r="CX1" s="58">
+        <v>45724</v>
+      </c>
+      <c r="CY1" s="58">
+        <v>45725</v>
+      </c>
+      <c r="CZ1" s="58">
+        <v>45726</v>
+      </c>
+      <c r="DA1" s="58">
+        <v>45727</v>
+      </c>
+      <c r="DB1" s="58">
+        <v>45728</v>
+      </c>
+      <c r="DC1" s="58">
+        <v>45729</v>
+      </c>
+      <c r="DD1" s="58">
+        <v>45730</v>
+      </c>
+      <c r="DE1" s="58">
+        <v>45731</v>
+      </c>
+      <c r="DF1" s="58">
+        <v>45732</v>
+      </c>
+      <c r="DG1" s="58">
+        <v>45733</v>
+      </c>
+      <c r="DH1" s="58">
+        <v>45734</v>
+      </c>
+      <c r="DI1" s="58">
+        <v>45735</v>
+      </c>
+      <c r="DJ1" s="58">
+        <v>45736</v>
+      </c>
+      <c r="DK1" s="58">
+        <v>45737</v>
+      </c>
+      <c r="DL1" s="58">
+        <v>45738</v>
+      </c>
+      <c r="DM1" s="58">
+        <v>45739</v>
+      </c>
+      <c r="DN1" s="58">
+        <v>45740</v>
+      </c>
+      <c r="DO1" s="58">
+        <v>45741</v>
+      </c>
+      <c r="DP1" s="58">
+        <v>45742</v>
+      </c>
+      <c r="DQ1" s="58">
+        <v>45743</v>
+      </c>
+      <c r="DR1" s="58">
+        <v>45744</v>
+      </c>
+      <c r="DS1" s="58">
+        <v>45745</v>
+      </c>
+      <c r="DT1" s="58">
+        <v>45746</v>
+      </c>
+      <c r="DU1" s="58">
+        <v>45747</v>
+      </c>
+      <c r="DV1" s="58">
+        <v>45748</v>
+      </c>
+      <c r="DW1" s="58">
+        <v>45749</v>
+      </c>
+      <c r="DX1" s="58">
+        <v>45750</v>
+      </c>
+      <c r="DY1" s="58">
+        <v>45751</v>
+      </c>
+      <c r="DZ1" s="58">
+        <v>45752</v>
+      </c>
+      <c r="EA1" s="58">
+        <v>45753</v>
+      </c>
+      <c r="EB1" s="58">
+        <v>45754</v>
+      </c>
+      <c r="EC1" s="58">
+        <v>45755</v>
+      </c>
+      <c r="ED1" s="58">
+        <v>45756</v>
+      </c>
+      <c r="EE1" s="58">
+        <v>45757</v>
+      </c>
+      <c r="EF1" s="58">
+        <v>45758</v>
+      </c>
+      <c r="EG1" s="58">
+        <v>45759</v>
+      </c>
+      <c r="EH1" s="58">
+        <v>45760</v>
+      </c>
+      <c r="EI1" s="58">
+        <v>45761</v>
+      </c>
+      <c r="EJ1" s="58">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="2" spans="1:140">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -3721,8 +4159,42 @@
       <c r="E2" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AJ2" s="63"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="63"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
+      <c r="BV2" s="59"/>
+      <c r="BW2" s="59"/>
+      <c r="CC2" s="59"/>
+      <c r="CD2" s="59"/>
+      <c r="CJ2" s="59"/>
+      <c r="CK2" s="59"/>
+      <c r="CQ2" s="59"/>
+      <c r="CR2" s="59"/>
+    </row>
+    <row r="3" spans="1:140">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -3734,8 +4206,47 @@
       <c r="E3" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="J3" s="64"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AJ3" s="63"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="63"/>
+      <c r="AT3" s="59"/>
+      <c r="AU3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BO3" s="59"/>
+      <c r="BP3" s="59"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="59"/>
+      <c r="CC3" s="59"/>
+      <c r="CD3" s="59"/>
+      <c r="CJ3" s="59"/>
+      <c r="CK3" s="59"/>
+      <c r="CQ3" s="59"/>
+      <c r="CR3" s="59"/>
+    </row>
+    <row r="4" spans="1:140">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -3747,8 +4258,45 @@
       <c r="E4" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="J4" s="64"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="64"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AJ4" s="63"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="63"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="59"/>
+      <c r="BV4" s="59"/>
+      <c r="BW4" s="59"/>
+      <c r="CC4" s="59"/>
+      <c r="CD4" s="59"/>
+      <c r="CJ4" s="59"/>
+      <c r="CK4" s="59"/>
+      <c r="CQ4" s="59"/>
+      <c r="CR4" s="59"/>
+    </row>
+    <row r="5" spans="1:140">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -3760,8 +4308,53 @@
       <c r="E5" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="J5" s="64"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="64"/>
+      <c r="AJ5" s="63"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="63"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BV5" s="59"/>
+      <c r="BW5" s="59"/>
+      <c r="CC5" s="59"/>
+      <c r="CD5" s="59"/>
+      <c r="CJ5" s="59"/>
+      <c r="CK5" s="59"/>
+      <c r="CQ5" s="59"/>
+      <c r="CR5" s="59"/>
+    </row>
+    <row r="6" spans="1:140">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -3773,8 +4366,53 @@
       <c r="E6" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="BA6" s="59"/>
+      <c r="BB6" s="59"/>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="59"/>
+      <c r="BO6" s="59"/>
+      <c r="BP6" s="59"/>
+      <c r="BV6" s="59"/>
+      <c r="BW6" s="59"/>
+      <c r="CC6" s="59"/>
+      <c r="CD6" s="59"/>
+      <c r="CJ6" s="59"/>
+      <c r="CK6" s="59"/>
+      <c r="CQ6" s="59"/>
+      <c r="CR6" s="59"/>
+    </row>
+    <row r="7" spans="1:140">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -3786,8 +4424,51 @@
       <c r="E7" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
+      <c r="AZ7" s="64"/>
+      <c r="BA7" s="59"/>
+      <c r="BB7" s="59"/>
+      <c r="BC7" s="64"/>
+      <c r="BH7" s="59"/>
+      <c r="BI7" s="59"/>
+      <c r="BO7" s="59"/>
+      <c r="BP7" s="59"/>
+      <c r="BV7" s="59"/>
+      <c r="BW7" s="59"/>
+      <c r="CC7" s="59"/>
+      <c r="CD7" s="59"/>
+      <c r="CJ7" s="59"/>
+      <c r="CK7" s="59"/>
+      <c r="CQ7" s="59"/>
+      <c r="CR7" s="59"/>
+    </row>
+    <row r="8" spans="1:140">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -3801,8 +4482,49 @@
       <c r="E8" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="BA8" s="59"/>
+      <c r="BB8" s="59"/>
+      <c r="BH8" s="59"/>
+      <c r="BI8" s="59"/>
+      <c r="BO8" s="59"/>
+      <c r="BP8" s="59"/>
+      <c r="BV8" s="59"/>
+      <c r="BW8" s="59"/>
+      <c r="CC8" s="59"/>
+      <c r="CD8" s="59"/>
+      <c r="CJ8" s="59"/>
+      <c r="CK8" s="59"/>
+      <c r="CQ8" s="59"/>
+      <c r="CR8" s="59"/>
+    </row>
+    <row r="9" spans="1:140">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -3816,8 +4538,45 @@
       <c r="E9" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AJ9" s="63"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="63"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="59"/>
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="64"/>
+      <c r="BG9" s="64"/>
+      <c r="BH9" s="59"/>
+      <c r="BI9" s="59"/>
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="64"/>
+      <c r="BL9" s="64"/>
+      <c r="BO9" s="59"/>
+      <c r="BP9" s="59"/>
+      <c r="BV9" s="59"/>
+      <c r="BW9" s="59"/>
+      <c r="CC9" s="59"/>
+      <c r="CD9" s="59"/>
+      <c r="CJ9" s="59"/>
+      <c r="CK9" s="59"/>
+      <c r="CQ9" s="59"/>
+      <c r="CR9" s="59"/>
+    </row>
+    <row r="10" spans="1:140">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -3829,8 +4588,48 @@
       <c r="E10" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AJ10" s="63"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="63"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="64"/>
+      <c r="BE10" s="64"/>
+      <c r="BH10" s="59"/>
+      <c r="BI10" s="59"/>
+      <c r="BO10" s="59"/>
+      <c r="BP10" s="59"/>
+      <c r="BV10" s="59"/>
+      <c r="BW10" s="59"/>
+      <c r="CC10" s="59"/>
+      <c r="CD10" s="59"/>
+      <c r="CJ10" s="59"/>
+      <c r="CK10" s="59"/>
+      <c r="CQ10" s="59"/>
+      <c r="CR10" s="59"/>
+    </row>
+    <row r="11" spans="1:140">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -3842,8 +4641,48 @@
       <c r="E11" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AJ11" s="63"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="63"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BH11" s="59"/>
+      <c r="BI11" s="59"/>
+      <c r="BM11" s="64"/>
+      <c r="BN11" s="64"/>
+      <c r="BO11" s="59"/>
+      <c r="BP11" s="59"/>
+      <c r="BQ11" s="64"/>
+      <c r="BR11" s="64"/>
+      <c r="BS11" s="64"/>
+      <c r="BT11" s="64"/>
+      <c r="BU11" s="64"/>
+      <c r="BV11" s="59"/>
+      <c r="BW11" s="59"/>
+      <c r="BX11" s="64"/>
+      <c r="BY11" s="64"/>
+      <c r="BZ11" s="64"/>
+      <c r="CC11" s="59"/>
+      <c r="CD11" s="59"/>
+      <c r="CJ11" s="59"/>
+      <c r="CK11" s="59"/>
+      <c r="CQ11" s="59"/>
+      <c r="CR11" s="59"/>
+    </row>
+    <row r="12" spans="1:140">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -3857,8 +4696,42 @@
       <c r="E12" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AJ12" s="63"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="63"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
+      <c r="BO12" s="59"/>
+      <c r="BP12" s="59"/>
+      <c r="BV12" s="59"/>
+      <c r="BW12" s="59"/>
+      <c r="CA12" s="64"/>
+      <c r="CB12" s="64"/>
+      <c r="CC12" s="59"/>
+      <c r="CD12" s="59"/>
+      <c r="CE12" s="64"/>
+      <c r="CF12" s="64"/>
+      <c r="CJ12" s="59"/>
+      <c r="CK12" s="59"/>
+      <c r="CQ12" s="59"/>
+      <c r="CR12" s="59"/>
+    </row>
+    <row r="14" spans="1:140">
       <c r="A14" s="19">
         <v>0</v>
       </c>
@@ -3895,7 +4768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:140">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +4808,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:140">
       <c r="A16" s="24">
         <f>VLOOKUP(A15,$A$2:$E$12,5)</f>
         <v>4</v>
